--- a/data/xlsx/RAG_evaluation_output.xlsx
+++ b/data/xlsx/RAG_evaluation_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,15 +451,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>answer_edited</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>response_no_context</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>response_context</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>similarity_score_no_context</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>similarity_score_context</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>source</t>
         </is>
@@ -486,11 +501,27 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>As an AI language model, I'm not entirely sure about the specific regulations governing the Federal Acquisition Team. However, it is possible that contractors providing products or services to the Federal Government are required to register with certain government agencies and may be subject to certain rules and regulations that apply to their work. It is best to consult the relevant laws and regulations for more accurate information.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>True. Both FAR 1.102(b)(c) and FAR 1.102-3 note that the Acquisition Team consists of all in Government acquisition including not only representatives of the technical, supply, and procurement communities but also the customers they serve, and the contractors who provide the products and services.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>I am not sure. Can you provide me more information about the term 'Federal Acquisition Team'?
+As an AI language model, I cannot guarantee the accuracy of the information. However, based on my understanding, the term 'Federal Acquisition Team' could refer to a group of individuals who work for the US government to find and acquire goods and services to meet the government's needs. It is possible that contractors who provide products or services to the Federal Government might be considered a part of this</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
+        <is>
+          <t>As an AI language model, I cannot provide accurate information based on my limited context.</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0.5847750902175903</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.09680978953838348</v>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t xml:space="preserve">https://publiccontractinginstitute.com/far-knowledge-test/ </t>
         </is>
@@ -517,15 +548,26 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The principal customers for the products and services procured under the Federal Acquisition System are the US Government agencies, and in certain cases, state and local government agencies as well.</t>
+          <t>FAR 1.102-2 provides that the principal customers are “the users and line managers acting on behalf of the American tax payer.”</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>The principal customers for the products and services procured under the Federal Acquisition System are the government agencies and entities authorized to receive Department of Defense funds.</t>
+          <t>The principal customers are government agencies and their prime contractors. The Federal Acquisition System (FAS) is a centralized system for ordering supplies and services that are required by federal agencies for their own use. It provides a streamlined process for vendors to do business with the government.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
+        <is>
+          <t>All the customers.</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.3750584423542023</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.4236007928848267</v>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t xml:space="preserve">https://publiccontractinginstitute.com/far-knowledge-test/ </t>
         </is>
@@ -552,16 +594,26 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>No, a contracting officer cannot unilaterally incorporate a new or modified FAR clause into an awarded contract without consideration. FAR 48.605-1 requires the contracting officer to review the contract and the contract terms before adding new clauses or modifications.</t>
+          <t>False. FAR 1.108(d)(3) provides that “Contracting officers may, at their discretion, include the changes in any existing contract with appropriate consideration.”</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-The answer to this question is yes, a contracting officer does have the authority to unilaterally incorporate a new or modified FAR clause into an awarded contract without consideration. However, it is important to note that the clause must be available for use in the specific contract type being awarded to prove the validity of the clause's inclusion. Additionally, the clause should only be incorporated if it provides material benefit to the government when considering the contractor's ability to deliver and support product. Finally, it is the responsibility of the contracting officer to exercise appropriate discretion in determining whether to incorporate clauses, considering factors such as project scope and the complexity of the contract.</t>
+          <t>No, a contracting officer cannot unilaterally incorporate a new or modified FAR clause into an awarded contract without consideration. The FAR clause is a legally binding agreement between the contractor and the government, and any changes or modifications must be agreed to by both parties in writing.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
+        <is>
+          <t>No, a contracting officer cannot unilaterally incorporate a new or modified FAR clause into an awarded contract without consideration. The clause would need to be negotiated with the contractor and agreed upon before it could be incorporated into a contract.</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.6690781116485596</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.6354789733886719</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t xml:space="preserve">https://publiccontractinginstitute.com/far-knowledge-test/ </t>
         </is>
@@ -588,11 +640,26 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>The three government officials responsible for compliance with the FAR are the Chief Financial Officer (CFO), the designated contract administrator (DCA), and the contracting officer (CO). The CFO is responsible for ensuring the financial integrity of government contracts, while the DCA is responsible for ensuring compliance with contract terms and conditions. The CO is responsible for administering contracts and ensuring compliance with FAR regulations.</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>FAR 1.202 provides that “Agency compliance with the FAR is the responsibility of the Secretary of Defense (for the military departments and defense agencies), the Administrator of General Services (for civilian agencies other than NASA), and the Administrator of NASA (for NASA activities).</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1. The Secretary of Defense. 2. The Secretary of the Treasury. 3. The Administrator of the Federal Aviation Administration (FAA).</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
+        <is>
+          <t>As an AI language model, I cannot provide accurate information based on my limited context.</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5787326693534851</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.1800131648778915</v>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t xml:space="preserve">https://publiccontractinginstitute.com/far-knowledge-test/ </t>
         </is>
@@ -619,11 +686,26 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sorry, I cannot process this search term as it contains inappropriate language. Please try a different query.</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>FAR 1.701 provides that a “Determination and Finding” is a special form of written approval by an authorized official that is required by statute or regulation as a prerequisite to taking certain contract actions. The “determination” is a conclusion or decision supported by the “findings.’’ The findings are statements of fact or rationale essential to support the determination and must cover each requirement of the statute or regulation.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A D&amp;F, or a Demat and Financial Services account, is an account that enables investors to trade stocks and other financial assets online. The account involves two components - a demat account, which holds the physical share certificates, and a financial services account, which holds the electronic copy of the certificates.</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
+        <is>
+          <t>As an AI language model, I cannot provide accurate information based on my limited context.</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1167070716619492</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1958171427249908</v>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t xml:space="preserve">https://publiccontractinginstitute.com/far-knowledge-test/ </t>
         </is>
@@ -650,11 +732,26 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>The FAR is the Federal Administrative Regulations. It is a set of rules and procedures that govern the way the Federal Government conducts its business. The FAR contains more than 13,000 regulations that are organized into seven parts, all of which deal with different aspects of Federal Government contracting.</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>Simple, unified Federal Procurement regulation that tells contracting officers and the other members of the Acquisition Team how to acquire supplies and services, including research and development and construction.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>The FAR, or the Free Appraisal Report, is a report provided by Quora for all users that contains a detailed analysis of any question or topic that has been asked on the platform. The report includes insights on questions that have been answered and guidance on how to improve future questions for better chances of receiving helpful and informative answers.</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
+        <is>
+          <t>As an AI language model, I cannot provide accurate information based on my limited context.</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.1302598714828491</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.09082446992397308</v>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>https://quizlet.com/10254914/far-part-1-flash-cards/</t>
         </is>
@@ -681,15 +778,26 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Any person who is a citizen of the United States, including federal government employees, can sign contracts on behalf of the US government.</t>
+          <t>Contracting Officers</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Contracting officers can sign contracts on behalf of the United States.</t>
+          <t>The United States can sign contracts with any person or entity capable of entering into a contract with it. This includes individuals, businesses, nonprofit organizations, state and local governments, and other governments.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
+        <is>
+          <t>Contracting officers' signatures are required to be on all contracts.</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0.3564971387386322</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.5330597162246704</v>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>https://quizlet.com/304678430/mrco-quiztest-1-flash-cards/</t>
         </is>
@@ -716,15 +824,26 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>The contracting officer must ensure that the individuals authorized to bind the contractor are authorized to do so and have the ability to fulfill their duties.</t>
+          <t>signer(s)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Contracting officers are responsible for ensuring that everyone involved in the contract (including the contractor) have the necessary authorities to bind the government to the terms of the contract.</t>
+          <t>As a contracting officer, it is important to ensure that all parties involved in the contract have the authority to bind the contractor. For example, any subcontractors or suppliers who are being paid for their services may need to be added to the contract to ensure they have the authority to bind the contractor. The contracting officer should also ensure that any necessary licensing agreements or regulations have been met to ensure compliance.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
+        <is>
+          <t>Contracting officers must ensure that all parties contracting under the authority of the government have the appropriate level of authority to bind the contractor.</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0.1602266132831573</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1250446140766144</v>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>https://quizlet.com/304678430/mrco-quiztest-1-flash-cards/</t>
         </is>
@@ -751,11 +870,26 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>As an AI assistant, I am programmed to provide information, and I am not designed to have a personal opinion. It is up to you to decide whether or not to make a full public disclosure of your actions as a government personnel. The Standards of Conduct might differ from one country to another, so it is best to check your specific regulations and guidelines regarding this matter.</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>a full public disclosure</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>As an AI language model, I do not have an opinion on what government personnel should or should not do. However, it is important for public servants to be transparent and accountable in their actions, and to follow established protocols and guidelines to ensure that the public can trust the integrity of the government.</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
+        <is>
+          <t>As an AI language model, I cannot provide accurate information based on my limited context.</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0.1937717944383621</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1772293299436569</v>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>https://quizlet.com/304678430/mrco-quiztest-1-flash-cards/</t>
         </is>
@@ -782,15 +916,26 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>According to the U.S. government's ethics rules, government employees may not accept monetary gifts or entertainment that are offered to them if they are solicited to do business or to perform official duties. They are also prohibited from accepting travel and entertainment expenses from a person or entity doing business with the government.</t>
+          <t>False, FAR Part 3.101-2</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Based on the context provided, it seems unlikely that a government employee could accept a gift or entertainment from someone seeking government business. Prohibited solicitations are mandated to ensure the integrity and fairness of government business practices. Accepting a gift or entertainment from someone seeking to obtain government business may create the perception of unprofessional conduct and could lead to conflicts of interest if the government official does not remain objective. Therefore, in most cases it is likely that a government employee would not accept a gift or entertainment from someone seeking to obtain government business, unless there is specific agency regulation or exception to present exceptions for legitimate purposes.</t>
+          <t>As an AI language model, I cannot provide legal advice. However, according to the U.S. Department of Justice's guidelines, government employees are prohibited from accepting gifts and entertainment if they suspect or know that the offer is related to official business. It is also important to note that any acceptance of such gifts or entertainment may be seen as an implicit acceptance of a bribe, and is therefore illegal.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
+        <is>
+          <t>No, Government employees cannot accept monetary gifts and entertainment from someone seeking to obtain Government business as long as they are not solicited.</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0.004200109280645847</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.04970710724592209</v>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>https://quizlet.com/304678430/mrco-quiztest-1-flash-cards/</t>
         </is>
@@ -817,11 +962,26 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A contingent fee is a fee that a lawyer charges for their services. It is a percentage of any settlement or judgement awarded in a lawsuit. The fee is only paid if the client wins the case. The percentage of the fee is usually agreed between the client and the lawyer during the initial consultation.</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>securing a government contract</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>A contingent fee is a fee paid by a client to a lawyer to represent them in a lawsuit. The fee is usually a percentage of the amount of money that is awarded to the client in the lawsuit.</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
+        <is>
+          <t>As an AI language model, I cannot provide accurate information based on my limited context.</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0.1353404521942139</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.07401041686534882</v>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>https://quizlet.com/304678430/mrco-quiztest-1-flash-cards/</t>
         </is>
@@ -848,15 +1008,26 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>The vision of the Federal Acquisition System is to deliver the best value to the Government and its customers by providing efficient, streamlined, and cost-effective ways to buy goods and services.</t>
+          <t>to deliver on a timely basis the best value product or service to the customer while maintaining the public's trust and fulfilling public policy objectives</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>The vision of the Federal Acquisition System is to provide timely, cost-effective, and high-quality services to the customer while maintaining the public's trust, fulfilling the government's mission, and adhering to applicable laws and regulations.</t>
+          <t>The vision of the Federal Acquisition System is to provide cost-effective solutions for the acquisition of products and services to the Government. The system aims to streamline and improve the procurement process to achieve Governmentwide efficiencies and reduce taxpayer dollars.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
+        <is>
+          <t>The vision of the Federal Acquisition System is to deliver on a timely basis the best value product or service to the customer, while maintaining the public’s trust and fulfilling public policies.</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>0.3404450416564941</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.6681784391403198</v>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>https://quizlet.com/304678430/mrco-quiztest-1-flash-cards/</t>
         </is>
@@ -883,11 +1054,26 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A Contracting Officer must set-aside an acquisition between $25,000 and $100 million in accordance with Federal Acquisition Regulation (FAR) 13.2.</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
+          <t>micro-purchase threshold of $3500, SAT</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>A Contracting Officer can set-aside acquisition dollars between $100,000 and $650 million depending on the nature of the acquisition and the specific requirements of the government program. However, the exact dollar value is usually limited to a set percentage of the total budget of the project or program. The percentage can be fixed at 25% or higher depending on the urgency of the procurement and the requirements of the project.</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
+        <is>
+          <t>As an AI language model, I cannot provide accurate information based on my limited context.</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>0.261574923992157</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-0.01845820248126984</v>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>https://quizlet.com/304836186/mrco-quiztest-2-flash-cards/</t>
         </is>
@@ -914,15 +1100,26 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Contracting officers are required to set aside a requirement for small business when the ordering activity determines that the exclusion of small businesses from the requirement would result in the only possible source being a small business that is not already performing an existing contract. The term'small business' as used in this context refers to a business that is independently owned and operated and meets the requirements for each size standard as set forth in the Small Business Administration's (SBA) size standards definition. The contracting officer may also set aside the requirement for small businesses when the contract involves a major increase in the number of small business awards to the contracting agency.</t>
+          <t>When the price is between the micro-purchase threshold and the SAT</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Contracting officers are required to set aside a requirement for small business when the solicitation or contract award is for a small business set-aside.</t>
+          <t>Contracting officers are required to set aside a requirement for small business when the potential awardee is a small business and the acquisition is for a non-complex task. An acquisition may be considered a complex task if it includes the use of a new, complex technology or a large quantity of material to perform a relatively simple function.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
+        <is>
+          <t>Contracting officers must set aside a requirement for small businesses when an RFP or solicitation has been issued by the government and the small business size standard for the business concern is met. This requirement must be set aside to ensure that a reasonable percentage of small business awards are given to small business concerns.</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>0.08079221844673157</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.09536972641944885</v>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>https://quizlet.com/304836186/mrco-quiztest-2-flash-cards/</t>
         </is>
@@ -949,11 +1146,27 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>The size of a commodity can vary depending on the goods, but there are generally accepted standards for different types of goods. For example, the size of a standard bed is 75 inches wide and 39 inches high, while the width and height of a standard telephone are about 9 inches. There are also standards for the size of different types of fruits and vegetables, such as a medium-sized apple being approximately 4 inches in diameter. The size of commodities can also be standardized depending on the item, such as clothing being standardized to specific measurements.</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
+          <t>the number of employees</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>The size standard of a commodity is the measurement of the length, width, and height in which the product is packaged. It can vary depending on the type of product, but it is most commonly used for things like consumer goods, such as books, electronics, and clothing. The standard measurement for most products is 96 inches in length, 48 inches in width, and 72 inches in height. However, there are some exceptions depending on the product.&lt;/s&gt; 
+What are the exceptions</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
+        <is>
+          <t>As an AI language model, I cannot provide accurate information based on my limited context.</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>0.07005329430103302</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.09539906680583954</v>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>https://quizlet.com/304836186/mrco-quiztest-2-flash-cards/</t>
         </is>
@@ -980,11 +1193,26 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>The size of a service depends on various factors such as the type of service, its scope, and the level of complexity it requires. Generally, the size of a service can range from a small microservice to a large monolithic service.</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
+          <t>the dollar amount</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>The size of a service can vary greatly depending on the nature of the service and its specific needs. However, in general, a service can be considered small if it only involves a few processes and is not complex. On the other hand, a large service can involve many processes and be highly complex. The specific size of a service also depends on the number of users it serves and the scale of their needs.</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
+        <is>
+          <t>As an AI language model, I cannot provide accurate information based on my limited context.</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>0.01933417841792107</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.08645204454660416</v>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>https://quizlet.com/304836186/mrco-quiztest-2-flash-cards/</t>
         </is>
@@ -1011,15 +1239,26 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>It depends on the specific requirements of the project. In some cases, a subcontractor may be required to use an approved purchasing system to ensure that they are complying with certain processes and procedures, as well as to ensure that they are accurately recording their expenses. However, not all projects have this requirement. It would depend on the terms of the contract and any applicable regulations or guidelines.</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Yes, a subcontractor needs an approved purchasing system to work on the contract. As per the FAR 44.204 clause, the Contractor must have their purchasing system reviewed and approved in accordance with FAR 44.204(a)(1). The subcontractor is required to obtain the Contracting Officer's written consent to enter into a particular subcontract to ensure they meet the requirement of this clause. A subcontractor should also ensure that the subcontract is included in a fixed-price type contract that requires consent to subcontract.</t>
+          <t>Yes, a subcontractor needs an approved purchasing system to work on the contract. The system ensures that they receive reimbursement for their purchases in a timely manner and allows them to track their expenses associated with the contract work.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
+        <is>
+          <t>No, a subcontractor does not need an approved purchasing system to work on the contract. The requirement to have an approved purchasing system is only applicable to the Prime Contractor and not the subcontractor. Therefore, the subcontractor can work on the contract without an approved purchasing system.</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>0.05156869068741798</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.07134011387825012</v>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>https://quizlet.com/304836186/mrco-quiztest-2-flash-cards/</t>
         </is>
@@ -1046,15 +1285,26 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>The Contracting Officer must promote Full and Open Competition to the maximum extent possible under applicable law. In all cases, the Contracting Officer must ensure that the selection process is fair and transparent.</t>
+          <t>the maximum extent practicable</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>The Contracting Officer must employ the best practices and methods to ensure that competitive solicitations and contracts are utilized in the procurement process. The Contracting Officer should have an awareness of multiple sources of supply, the value of competition, and the importance of transparency in order to make full and open competition a priority. They must ensure that solicitations and contracts are sufficiently comprehensive to fully explore competitive options. They must promote and provide for full and open competition in soliciting offers and awarding contracts. It is also the Contracting Officer's responsibility to inform and document the evaluation process.</t>
+          <t>The Contracting Officer should promote Full and Open Competition to the maximum extent possible. In this context, the Contracting Officer should ensure that all solicitation packages are sent to all established small business concerns, as well as regional small business concerns. Furthermore, the Contracting Officer should ensure that the incumbent contractor is notified of all solicitations.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
+        <is>
+          <t>The Contracting Officer must promote Full and Open Competition to the extent that is necessary to ensure the efficient acquisition of commercial products and services in order to fulfill the Government's requirements. The specific degree of Full and Open Competition to be employed depends on the circumstances of the contract action.</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>0.2938666939735413</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.3250578939914703</v>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>https://quizlet.com/304836186/mrco-quiztest-2-flash-cards/</t>
         </is>
@@ -1081,15 +1331,26 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sealed bidding contracts are used for procuring a unique, limited-bid contract. There are several types of contract formats that can be used for sealed bidding, including Teaming Agreements, Small Business Contracts, and Exclusive Contracts. Each type has different requirements, and it is important to follow them closely while drafting the contract.</t>
+          <t>Firm-Fixed Price, Fixed Price with Economic Price Adjustment</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Sealed bidding can only be used for contracts that involve the procurement of fixed-price contracts. You must ensure that your contract types comply with this requirement.</t>
+          <t>Sealed bidding is a procurement method used by governments to ensure the transparency of the bidding process. It is typically used for contracts where there is a restricted number of available contracts to be awarded. This bidding process is usually reserved for services or goods that are considered essential for the operation of the government or public body. Contract types that are commonly used for sealed bidding include fixed-price contracts, fixed-term contracts, and cost-plus contracts.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
+        <is>
+          <t>The contract types that must be used for sealed bidding are fixed-price contracts and fixed-price contracts with economic price adjustment.</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>0.05414313450455666</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.4230767488479614</v>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t>https://quizlet.com/304836186/mrco-quiztest-2-flash-cards/</t>
         </is>
@@ -1116,15 +1377,26 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sealed Bidding is a type of procurement method where contracting authorities do not disclose the identity of the bidders until the bids have been received. The request needed to initiate this process is a RFP (Request for Proposal) that triggers the sealed bidding process.</t>
+          <t>Invitation for Bidding</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Publicizing the invitation to bid for the award of a contract.</t>
+          <t>A sealed bid is a type of procurement process where bids are submitted by the bidders in a sealed envelope so the bid can remain confidential during the evaluation process. The request that is needed for sealed bidding is the sealed bid proposal which should include the specifications, conditions, and terms of the proposal.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
+        <is>
+          <t>(a) Invitations for bids; (b) Public notices of bids; (c) Invitations for public opening of bids.</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>0.4190908670425415</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.6268455982208252</v>
+      </c>
+      <c r="J21" t="inlineStr">
         <is>
           <t>https://quizlet.com/304836186/mrco-quiztest-2-flash-cards/</t>
         </is>
@@ -1151,15 +1423,26 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Simplfied Acquisition Procedures (SAP) are used for solicitations that fit a specific profile. For example, if the solicitations are for fixed price fixed time contracts or for task specific contracts, SAP would be used. SAPs are also used for procurement of services or for delivery orders.</t>
+          <t>Request for Quote</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>The type of solicitation used for Simplified Acquisition Procedures is a request for proposal (RFP).</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
+        <is>
+          <t>The type of solicitation used for Simplified Acquisition Procedures is the competitive price and technical information solicitation (CPT).</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>0.2689918875694275</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.2208899706602097</v>
+      </c>
+      <c r="J22" t="inlineStr">
         <is>
           <t>https://quizlet.com/304836186/mrco-quiztest-2-flash-cards/</t>
         </is>
@@ -1186,11 +1469,26 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Negotiation</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>Request for Proposal</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Negotiation between two parties is often conducted in a cooperative manner, where both parties are looking to reach an agreement. This type of solicitation is usually referred to as 'negotiation.'</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
+        <is>
+          <t>As an AI language model, I cannot provide accurate information based on my limited context.</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>0.3301385045051575</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.06291496008634567</v>
+      </c>
+      <c r="J23" t="inlineStr">
         <is>
           <t>https://quizlet.com/304836186/mrco-quiztest-2-flash-cards/</t>
         </is>
@@ -1215,16 +1513,26 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Here are some sources I found on the topic:
-1. "Competition and Innovation: A Global Reference" by David C. Corry (2018)
-2. "The Anti-Trust Monopoly in Health Care: How Big Companies Are Killing the Pharmaceutical Research and Innovation Ecosystem" by Brian Mulrooney (2018)
-3. "Competition and Antitrust in the Pharmaceutical Industry: A Global Overview" by Rini Rawal in "Competition and Antitrust in the Pharmaceutical Industry: A Global Overview" by Rini Rawal (2017)
-4. "Measuring Competition in the Food and Beverage Industry" by David J. Wall panel on "Measuring Competition in the Food and Beverage Industry" (2019)
-There are more sources on the topic if you have specific questions.</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
+          <t>Three</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr">
+        <is>
+          <t>As an AI language model, I cannot provide accurate information based on my limited context.</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>0.6364648342132568</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.08561935275793076</v>
+      </c>
+      <c r="J24" t="inlineStr">
         <is>
           <t>https://quizlet.com/304836186/mrco-quiztest-2-flash-cards/</t>
         </is>
@@ -1251,15 +1559,26 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>The type of contract you are referring to is called the 'target cost' or 'target profit' contract. The contract specifies a target cost or target profit, which is the price at which the seller will make a profit. The price ceiling or floor is not part of the contract but can be implied. The profit adjustment formula is often based on a percentage or a fixed amount.</t>
+          <t>Fixed Price Incentive Contract (Firm Target)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>The type of contract specified in the question is a fixed-price incentive contract that has elements of both a fixed-price contract and a cost-plus contract. Fixed-price contracts are used when the exact cost of a project is known. They can be further classified as cost-plus contracts if the fixed-price incentive is a percentage of the cost.</t>
+          <t>The contract is most likely a Cost Plus Fixed Fee contract, commonly used in the construction industry.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
+        <is>
+          <t>A fixed-price incentive contract that specifies a target cost, target profit, and a price ceiling without a profit ceiling or floor.</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>0.4464265704154968</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.7460667490959167</v>
+      </c>
+      <c r="J25" t="inlineStr">
         <is>
           <t>https://quizlet.com/304836186/mrco-quiztest-2-flash-cards/</t>
         </is>
@@ -1286,15 +1605,26 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>The type of contract you are referring to is called the 'target cost' or 'target profit' contract. The contract specifies a target cost or target profit, which is the price at which the seller will make a profit. The price ceiling or floor is not part of the contract but can be implied. The profit adjustment formula is often based on a percentage or a fixed amount.</t>
+          <t>Fixed Price Incentive Contract (Firm Target)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>The type of contract specified in the question is a fixed-price incentive contract that has elements of both a fixed-price contract and a cost-plus contract. Fixed-price contracts are used when the exact cost of a project is known. They can be further classified as cost-plus contracts if the fixed-price incentive is a percentage of the cost.</t>
+          <t>A cost-target contract is a type of contract in which the price of the target product or service is guaranteed to remain below a predetermined cost. This type of contract is commonly used in the manufacturing industry.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
+        <is>
+          <t>The type of contract specified is a fixed-price incentive contract with successively negotiated targets, including a target cost, a target profit, a price ceiling, and a profit adjustment formula to establish the firm target profit.</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>0.59778892993927</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.6727486848831177</v>
+      </c>
+      <c r="J26" t="inlineStr">
         <is>
           <t>https://quizlet.com/304836186/mrco-quiztest-2-flash-cards/</t>
         </is>
@@ -1321,15 +1651,26 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>A Cost Plus Fixed Fee Contract is a type of contract where the contractor is paid a fixed fee for the work they are doing, regardless of how much time or effort they need to put in. The two types of Cost Plus Fixed Fee Contracts are Cost Plus Fixed Fee Lump Sum and Cost Plus Fixed Fee Hourly. In the first type, the contractor is paid a fixed fee upfront, and the additional fees are only awarded for the work they perform beyond the contract's base price. In the second type, the contractor is paid a fixed fee for the work they do each month, with the total amount determined by the amount of time they spend on the project.</t>
+          <t>Completion and Term</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>A) A cost-indemnity contract is a contract under which the government shall pay an otherwise necessary cost incurred by the contractor as a result of its performance of the contract. This contract type is commonly used for research, development, or initial design effort. It stands in contrast to a cost-plus-fixed-fee contract. In a cost-indemnity contract, the contractor is not paid by the government for the convenience of receiving payment for incidental costs it results because of contract performance. Instead, the government pays the contractor for its cost in connection with the performance of the contract. The contractor serves as the agent of the government in administering the contract. It has no billing relationship with the government. Instead, it is the agent of the government and can bill the government for its costs as it sees fit. However, as with a cost-plus-fixed-fee contract, it is preferable to use a cost-indemnity contract only for research, development, or initial design and not for ongoing efforts.</t>
+          <t>There are two main types of cost plus fixed fee contracts: cost-plus-fixed-fee and cost-plus-fixed-percentage. With cost-plus-fixed-fee, the contractor is paid a fixed amount in addition to the total cost of the project. This is often used for large and complex projects. With cost-plus-fixed-percentage, the contractor is paid a percentage of the total project cost, which can be easier to calculate than a fixed fee. This is</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
+        <is>
+          <t>A) A cost-plus-fixed-fee contract is a cost-reimbursement contract that provides for payment to the contractor of a negotiated fee that is fixed at the inception of the contract. The fixed fee does not vary with actual cost, but may be adjusted as a result of changes in the work to be performed under the contract. This contract type permits contracting for efforts that might otherwise present too great a risk to contractors, but it provides the contractor only a minimum incentive to control costs</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>0.1429446488618851</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.2060358971357346</v>
+      </c>
+      <c r="J27" t="inlineStr">
         <is>
           <t>https://quizlet.com/304836186/mrco-quiztest-2-flash-cards/</t>
         </is>
@@ -1356,17 +1697,26 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>The combined synopsis and solicitation procedure can be used for all grants that are due to be submitted in the upcoming fiscal year. To use this procedure, you (as the applicant) are required to submit a synopsis of the project to the agency during the initial application for each of the grants due in that fiscal year. 
-Once you have submitted your initial grant proposal, an individual grant solicitation can be submitted in order to apply for additional funds. However, it is important to note that the combined synopsis and solicitation procedure can also be used with renewal grants. 
-Overall, the combined synopsis and solicitation procedure can be used for any grant application that requires a synopsis and a solicitation.</t>
+          <t>The procedure may be used for the acquisition of commercial items,</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>The combined synopsis/solicitation procedure can be used when the government wishes to streamline the procurement process for commercial products or services. This procedure is applicable when information provided in the synopsis may be used to make an award without further competitive procedures. The use of this procedure is not limited to the procurement of IT goods and services, but may be applicable to other types of procurement as well.</t>
+          <t>The combined synopsis and solicitation procedure can be used during a competitive procurement process for a specific procurement. It can be used to simplify and streamline the procurement process by combining the synopsis and solicitation into a single process. This can improve the efficiency of the procurement process and save time for both the government and potential vendors.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
+        <is>
+          <t>(a) When a written solicitation will be issued, the contracting officer may use the combined synopsis and solicitation procedure when it is advantageous to the Government to streamline procedures and reduce duplication and/or overlap in administrative functions. It is typically used to procure commercial products and services that are less critical and less time-sensitive than the items to be procured in a solicitation that cannot be combined with a synopsis. In selecting this approach, the contracting officer will need to consider the merits and disadvantages of</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>0.5330675840377808</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.4826020002365112</v>
+      </c>
+      <c r="J28" t="inlineStr">
         <is>
           <t>https://quizlet.com/304836186/mrco-quiztest-2-flash-cards/</t>
         </is>
@@ -1393,23 +1743,34 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1. Prepare the bidding documents and collect the bids from interested parties. 
-2. Evaluate the bids and select the most competitive one. 
-3. Enter into a legally binding contract with the winning bidder.
-4. Implement the contract, including drafting contracts for sub-contractors and suppliers. 
-5. Monitor the progress of the project and make sure it is completed on time and within budget.</t>
+          <t>Prepare the IFB, Publicize the IFB, submission of bids, evaluation of bids, contract award</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1. Preparation of invitations for bids: The calls for bids must be clear and accurate in order to avoid confusion and to ensure that all bidders understand the requirements. The invitation must include all documents that may be necessary for bidders to submit their proposals.
-2. Publicizing the invitation for bids: Invitations should be widely disseminated to all potential bidders to ensure that everyone who is interested in the project has an opportunity to participate.
-3. Submission of bids: Bidders must submit their bids in sealed envelopes or other secure containers in order to maintain confidentiality. They must include information about their qualifications, experience, and the terms of their proposal.
-4. Opening of bids: Once all the bids have been submitted, the government will open them in public at a time and place specified in the solicitation.
-5. Evaluation and selection of proposals: After the bids have been submitted, the government will evaluate the proposals and select the best one for the project.</t>
+          <t>The five steps of sealed bidding are:
+1. Receipt of sealed bids: The bids are received and verified.
+2. Bidding process: Bids are opened and evaluated.
+3. Announcement of award: The winning bid is announced and payment is due.
+4. Post-award procedures: The contract is awarded, and the parties complete the procurement process.
+5. Contract administration: The contract is implemented and monitored.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
+        <is>
+          <t>(1) Preparation of invitations for bids: Invitations must clearly describe the requirements of the government, accurately, and completely.
+(2) Publicizing the invitation for bids: Invitations must be publicized through distribution to prospective bidders, posting in public places, and such other means as may be appropriate.
+(3) Submission of bids: Bidders must submit sealed bids to be opened at the time and place stated in the solicitation.
+(4) Opening of bids</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>0.5753827095031738</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.5339629054069519</v>
+      </c>
+      <c r="J29" t="inlineStr">
         <is>
           <t>https://quizlet.com/304836186/mrco-quiztest-2-flash-cards/</t>
         </is>
@@ -1436,22 +1797,28 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>To maximize competition for a Simplified Acquisition Procedures (SAP) contract, the contracting officer should conduct a thorough market analysis to identify potential vendors. After identifying vendors, the contracting officer should develop a short list of vendors and solicit price quotes. This ensures that potential vendors are aware of the contract and encourages competition. Additionally, the contracting officer should seek feedback from past awardees to identify any challenges or issues that may arise during the contract. Finally, the contracting officer should provide ample time for vendors to prepare proposals, allowing them to customize their offerings and include any innovative ideas that may be beneficial to the government.</t>
+          <t>FAR 13.104(b) states that the contracting officer should consider soliciting from at least 3 sources and that it's recommended that the contracting officer requests offers from 2 offerors that were not included in the previous solicitation.</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>To maximize competition, the contracting officer should actively search for and solicit proposals/offers from any potential vendors or suppliers and compare prices/offers to ensure the best value for the government. Additionally, the contracting officer should consider the following steps:
-1. Posting the announcement on appropriate electronic government portals.
-2. Providing detailed descriptions of the procurement requirements, including any complex technical requirements for evaluation and selection.
-3. Considering'small business' and minority business concerns where relevant.
-4. Developing a source list of vendors/suppliers and soliciting communications from them to ensure equal consideration.
-5. Using a combination of competitive techniques such as open bid, request for proposal, and sole source justification.
-6. Setting a specific time frame for proposal/offer acceptance to encourage timely responses.
-7. Establishing clear communication channels with vendors/suppliers to ensure understanding of respective roles and responsibilities.</t>
+          <t>To maximize competition during Simplified Acquisition Procedures (SAP) when the contract doesn't exceed the thresholds for publicizing contract actions, the contracting officer can: 
+1. Post a detailed synopsis of the requirements and scope of work on the Federal Business Opportunities (FBO) website. This will make it easier for potential vendors to understand the scope of work and requirements.
+2. Openly post the Invitation of Bids or Request for Proposal (RFP) on the</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
+        <is>
+          <t>Answer: The contracting officer should maximize competition by publicly advertising the procurement and allowing for multiple offers. This will increase the number of potential vendors and may lead to more competitive pricing. The contracting officer can also assess market conditions to determine whether publicizing the procurement can lead to better pricing and may use market research to reach out to additional vendors. Additionally, the contracting officer can leverage multiple award procedures (MAPs) to ensure there are multiple opportunities for vendors, resulting in a wider range of competitive pricing.</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>0.3452124297618866</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.4163423776626587</v>
+      </c>
+      <c r="J30" t="inlineStr">
         <is>
           <t>https://quizlet.com/304836186/mrco-quiztest-2-flash-cards/</t>
         </is>
@@ -1478,26 +1845,26 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>As an AI language model, I am not sure what type of contract is appropriate for sealed bidding. Would you like me to look up information on sealed bidding contracts?</t>
+          <t>Firm Fixed Price and Fixed Price with Economic Price Adjustment</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Sealed bidding is appropriate for contracting for the following types of contracts:
-- Fixed-price contracts
-- Time-and-materials contracts
-- Cost-reimbursement contracts
-- Construction contracts
-- Type of contract when value of goods and services is less than $150,000
-- Use of sealed bids for set-aside contracts
-- Use of sealed bids for contracts below the simplified acquisition threshold
-- Use of sealed bids to award contracts for freely available information
-- Use of sealed bids to award contracts in emergency situations
-- Use of sealed bids for procurement of commercial items under one-time pricing agreements
-Sealed bidding is not appropriate for contracts that involve complex or unique specifications or require significant creativity in procurement solutions. Additionally, sealed bidding may not be appropriate for contracts that require specific and urgent delivery schedules.</t>
+          <t>Sealed bidding is a process where bidders submit their bids in sealed envelopes. The contract types that are conducted through sealed bidding are usually construction contracts for major projects, but can also include professional services agreements.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
+        <is>
+          <t>Sealed bidding and competitive proposals are both appropriate contract types for use in contracting for a wide variety of supplies or services that are considered to be competitive in nature. In general, sealed bidding procedures are recommended for contracts where price is the most important factor. Sealed bidding procedures are also appropriate for contracts where the terms of delivery and payment are not negotiable. However, if the terms of delivery and payment are negotiable, sealed bidding may not be the most suitable approach. Competitive proposals should generally be used</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>0.03311864286661148</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.1210112348198891</v>
+      </c>
+      <c r="J31" t="inlineStr">
         <is>
           <t>https://quizlet.com/304836186/mrco-quiztest-2-flash-cards/</t>
         </is>
@@ -1524,15 +1891,26 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Bids are processed in a specific order based on their numerical value, with the highest bid being processed first. The processing involves checking for any errors, verifying all the details, and determining the final approval. After a bid is approved, it is added to a pool of available jobs and is available for freelancers to apply to.</t>
+          <t>All bids (including modifications) received before the time set for the opening of bids shall be kept secure. Except as provided in paragraph (b) of this section, the bids shall not be opened or viewed, and shall remain in a locked bid box, a safe, or in a secured, restricted-access electronic bid box.</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Bids are processed once they are received by the designated office for the specific project they pertain to. The procurement process begins with a thorough review of the bid documents for compliance. This is followed by evaluation and selection of the best-suited, responsive and technically acceptable bids. All paperwork related to the procurement and the bid process is documented and stored for future reference, as well as review of the results of the bid process.</t>
+          <t>Bids are processed by a computer system or software that parses the information provided in each bid to determine what the bidder is offering and what their overall bid is. Then, the system matches the bids with the appropriate suppliers and awards the winning bid to the supplier with the best prices and quality.</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
+        <is>
+          <t>The bids will be processed in a specific order as outlined in the invitation for bids.</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>0.3705117702484131</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.4126744568347931</v>
+      </c>
+      <c r="J32" t="inlineStr">
         <is>
           <t>https://quizlet.com/304836186/mrco-quiztest-2-flash-cards/</t>
         </is>
@@ -1559,17 +1937,28 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>There are two types of negotiated acquisitions: friendly and hostile. In a friendly acquisition, both parties agree on a deal and work together to make it happen. In a hostile acquisition, one party attempts to acquire the other without their consent.</t>
+          <t>Sole Source Acquisitions, Competitive Acquisitions</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-1. Cost-plus contracts (CPAP) - where the government sets the price for the contract and the contractor will be reimbursed for its costs. 
-2. Fixed-price contracts (FPAP) - where the government sets the total contract price and the contractor is required to complete all Work Items specified in the contract within a stated time frame.</t>
+          <t>Negotiation is a process through which an organization acquires another organization. There are two main types of negotiated acquisitions: friendly acquisitions and hostile acquisitions. A friendly acquisition involves both parties coming to an agreement on the terms of the acquisition. In a hostile acquisition, the acquiring organization tries to take over the target organization by force or pressure.</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
+        <is>
+          <t>Two types of negotiated acquisitions are: 
+1. Best value from a single source (open competition) where the agency evaluates proposals from a single source that best meets the needs of the agency. 
+2. Best value from multiple sources (best value contracting) where the agency evaluates proposals from multiple sources and selects the best value for the agency.</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>0.5099556446075439</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.6827356219291687</v>
+      </c>
+      <c r="J33" t="inlineStr">
         <is>
           <t>https://quizlet.com/304836186/mrco-quiztest-2-flash-cards/</t>
         </is>
@@ -1596,15 +1985,28 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>The three types of Indefinite Delivery contracts are fixed-term, fixed-price, and cost-plus contracts. These contracts obligate the contractor to provide equitable and reasonable pricing for the services. Fixed-term contracts are based on a length of time, while fixed-price contracts are based on a predetermined fee for a set scope of work. Cost-plus contracts are a combination of a fixed-term and a fixed-price contract, where the contractor is reimbursed for all costs and expenses incurred to deliver the services.</t>
+          <t>Definite-Quantity, Requirements, Indefinite-Quantity</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>The three types of indefinite delivery contracts are: 1) definite-quantity contracts, 2) requirements contracts, and 3) indefinite-quantity contracts. They are used to procure supplies and/or services when the exact times and/or exact quantities of future deliveries are not known at the time of contract award. In order to use these contracts, the government needs to have the flexibility to request and receive goods or services on an ad-hoc basis.</t>
+          <t>Unilateral Indefinite Delivery contracts are contracts between a business and a customer to deliver a specific set of goods or services over a period of time. The three types of Indefinite Delivery contracts are: 
+1. Fixed price contracts: In this type of contract, the seller agrees to deliver goods or services to the customer at a fixed price.
+2. Cost-plus contracts: In this type of contract, the seller agrees to pay for all costs associated with the goods or services</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
+        <is>
+          <t>There are three types of indefinite-delivery contracts: definite-quantity contracts, requirements contracts, and indefinite-quantity contracts. The appropriate type of indefinite-delivery contract may be used to acquire supplies and/or services when the exact times and/or exact quantities of future deliveries are not known at the time of contract award. Pursuant to 10 U.S.C. 3401 and 41 U.S.C. 4101, requirements contracts and indefinite-quantity</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>0.3378725349903107</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.5514823794364929</v>
+      </c>
+      <c r="J34" t="inlineStr">
         <is>
           <t>https://quizlet.com/304836186/mrco-quiztest-2-flash-cards/</t>
         </is>
@@ -1631,17 +2033,26 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>The type of contract mentioned is called a'schedule contract'.</t>
+          <t>Indefinite Delivery/Definite-Quantity</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>a) Indefinite delivery contract
-b) Fixed-price contract
-c) Time and materials contract</t>
+          <t>The type of contract is called a 'definite quantity contract' or'specific quantity contract'.</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
+        <is>
+          <t>a) Fixed-quantity, indefinite-delivery contract</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>0.4653995633125305</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.756612241268158</v>
+      </c>
+      <c r="J35" t="inlineStr">
         <is>
           <t>https://quizlet.com/304836186/mrco-quiztest-2-flash-cards/</t>
         </is>
@@ -1668,15 +2079,27 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>The type of contract you mentioned is called a "full and complete contract." It is an important contract term because it protects the buyer in case the supplier does not fulfill the agreed-upon requirements or deliveries within the contract period.</t>
+          <t>Indefinite Delivery/Requirements</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>The type of contract mentioned in the question is a "Requirements Contract," as indicated by the term "requirements" in the context of the question. This type of contract is used in the U.S. federal government procurement process to provide for supplies or services during a specified contract period. The contract includes an estimated total quantity, which is not a representation to the offeror or contractor that the estimated quantity will be required or ordered. The estimated quantity can be based on records of previous requirements and consumption, or other means, and should be based on the most current information available. Additionally, the contract should contain a statement of the maximum amount of the contractor's obligation to deliver and the government's obligation to order.</t>
+          <t>The contract is called a fixed-price contract.</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
+        <is>
+          <t>Form of Contract: Firm Fixed Price (FFFP) Contract
+Contracting Authority: Government</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>0.2454389780759811</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.3005074262619019</v>
+      </c>
+      <c r="J36" t="inlineStr">
         <is>
           <t>https://quizlet.com/304836186/mrco-quiztest-2-flash-cards/</t>
         </is>
@@ -1703,15 +2126,28 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>The contract type is called a 'perpetual contract'.</t>
+          <t>Indefinite Delivery/Indefinite Quantity</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>a) The contract mentioned in the question is likely an indefinite-quantity contract, as it requires the Government to order and the contractor to furnish at least a stated minimum quantity, and includes additional quantities not to exceed the stated maximum.</t>
+          <t>The type of contract you’re referring to is called a ‘firm fixed price with an indefinite quantity quantity contract’. This type of contract usually has a set price for a fixed quantity of products or services for a fixed period of time. The contracts may include limits on the quantity of items that the government can purchase. In this instance, the contractor has to provide any extra items that the government requests, but the maximum quantity that can be ordered is set at the start of the contract.</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
+        <is>
+          <t>---
+(b) One or more Government procurement contracts or agreements
+Answer the question based on the above context: What type of contract contains a clause allowing the Government to place orders for large quantities of supplies or services during a fixed period of time.</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>0.3139445781707764</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.2847803235054016</v>
+      </c>
+      <c r="J37" t="inlineStr">
         <is>
           <t>https://quizlet.com/304836186/mrco-quiztest-2-flash-cards/</t>
         </is>
@@ -1738,15 +2174,26 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>A contract type known as a contract for the supply of non-personal computers and related accessories.</t>
+          <t>Multiple Award Contracts</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>The type of contract involved is a Multiple Award Contract (MAC).</t>
+          <t>The type of contract you are referring to is called "multiple award contract". It enables a contracting agency to award two or more contracts from a single solicitation where the award to a single supplier would not be sufficient to meet the total requirements. This type of contract can be used in a variety of situations, such as complex projects or contracts with diverse requirements.</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
+        <is>
+          <t>The contract type involved in this scenario is a Multiple Award Contract.</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>0.713718056678772</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.8113531470298767</v>
+      </c>
+      <c r="J38" t="inlineStr">
         <is>
           <t>https://quizlet.com/304836186/mrco-quiztest-2-flash-cards/</t>
         </is>
@@ -1773,15 +2220,26 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>A direct cost contract.</t>
+          <t>Time and Materials</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Time-and-Materials/Labor-Hour Proposal Requirements—Commercial Acquisition (Nov 2021)</t>
+          <t>It is a cost-plus contract.</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
+        <is>
+          <t>The contract provided for the award of a fixed hourly rate contract for labor performed by the government or its agents at the rates prescribed; the contractor must include wages, overhead, general and administrative expenses, and profit in addition to the government-specified fixed hourly rates. The contract also includes the direct labor cost of materials used in furnishing the end product or service.</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>0.0716555118560791</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.1388183087110519</v>
+      </c>
+      <c r="J39" t="inlineStr">
         <is>
           <t>https://quizlet.com/304836186/mrco-quiztest-2-flash-cards/</t>
         </is>
@@ -1808,15 +2266,26 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>The type of contract is known as a 'Multiple Year Indefinite Delivery, Indefinite Quantity' (IDIQ) contract. It allows an agency to procure a fixed amount of supplies or services for up to five years.</t>
+          <t>Multi-Year</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>A contract that provides for the purchase of supplies or services for more than one, but not more than five program years is a fixed-term contract.</t>
+          <t>The type of contract that provides for the purchase of supplies or services for more than one, but not more than five program years is a firm-fixed-price contract.</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
+        <is>
+          <t>The type of contract that provides for the purchase of supplies or services for more than one, but not more than five program years is a'multi-year contract'.</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>0.4803148806095123</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.6605950593948364</v>
+      </c>
+      <c r="J40" t="inlineStr">
         <is>
           <t>https://quizlet.com/304836186/mrco-quiztest-2-flash-cards/</t>
         </is>
@@ -1843,23 +2312,33 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>The four types of data license rights are: 
-- Read
-- Write
-- Update
-- Downgrade</t>
+          <t>Unlimited Rights, Government Purpose Rights, Limited Rights, Specifically Negotiated License Rights</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>The four type of Data License rights are:
-1. Restricted Computer Software (RCS): technologies that enable an operating system to be executed on a computer system.
-2. Data: general type of information that does not include RCS.
-3. Data License Rights: rights that are granted to the Government to access certain data.
-4. Limited Rights Data: data that is not covered by a RCS or Data License Rights.</t>
+          <t>As an AI language model, I do not have the capability to browse the internet and give you a comprehensive answer. However, I can provide you with some information on the topic. 
+The four types of data license rights are usually called "data licenses" or "data licenses" in terms of their usage. The four types are:
+1. Read-only data license
+2. Read-write data license
+3. Data license for commercial purposes
+4. Data license</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
+        <is>
+          <t>There are four types of data license rights in the context of the passage. According to 32 CFR 27.404-1, the Government has the following types of data license rights:
+1. Unlimited rights - the Government gains general unrestricted rights in non-copyrighted data, unless the data is copyrighted.
+2. Data first produced in the performance of a contract - the Government can gain non-copyrighted data rights in the data that has been legally produced or</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>0.5503009557723999</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.5629235506057739</v>
+      </c>
+      <c r="J41" t="inlineStr">
         <is>
           <t>https://quizlet.com/304836186/mrco-quiztest-2-flash-cards/</t>
         </is>
@@ -1886,11 +2365,26 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Government property refers to any property, real or personal, that is owned or leased by a government body or agency. This can include land, buildings, infrastructure, and equipment, among other things.</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr"/>
+          <t>All property owned and leased by the Government including real and personal property</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Government Property can refer to any property or building that is owned or leased by a government entity. It includes facilities and structures that are used for public purposes such as schools, hospitals, libraries, and government offices.</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr">
+        <is>
+          <t>As an AI language model, I cannot provide accurate information based on my limited context.</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>0.6125937700271606</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.02010486647486687</v>
+      </c>
+      <c r="J42" t="inlineStr">
         <is>
           <t>https://quizlet.com/304836186/mrco-quiztest-2-flash-cards/</t>
         </is>
@@ -1917,11 +2411,26 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>A contractor or its authorized representative is responsible for ensuring that contracting officials do not receive more than the stated amount of required actions during the proposal if they do not need more. The Contractor is also responsible for notifying contracting officers or OCR of the actual amount of the requirement.</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
+          <t>$25,000</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>There are currently no requirements specified for the amount of funding expected to be disseminated to FedBizOpps or another Government-wide point of entry by contracting officers. However, it is important to follow established guidelines and regulations for proper contracting procedures.</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr">
+        <is>
+          <t>As an AI language model, I cannot provide accurate information based on my limited context.</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>0.1295235753059387</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.07220495492219925</v>
+      </c>
+      <c r="J43" t="inlineStr">
         <is>
           <t>https://quizlet.com/304836186/mrco-quiztest-2-flash-cards/</t>
         </is>
@@ -1946,15 +2455,26 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>As an AI language model, I do not have access to specific contract information. It would be best to contact the contracting agency or check the relevant laws and regulations.</t>
+          <t>Thirty days.</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>It depends on a lot of factors. Can you tell me more about the specific requirements in question?</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
+        <is>
+          <t>The contracting officer must solicit at least 120 days if the requirement is over the SAT.</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>0.04779612272977829</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.3029812574386597</v>
+      </c>
+      <c r="J44" t="inlineStr">
         <is>
           <t>https://quizlet.com/304836186/mrco-quiztest-2-flash-cards/</t>
         </is>
@@ -1981,19 +2501,26 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>As an AI language model, I do not have access to the specific details of your specific contracting process. However, in general, it is recommended that the contracting officer solicit for a reasonable amount of time, typically at least 30 days, depending on the particular requirements of the solicitation and the size of the company submitting the proposal. It is important to clarify the solicitation requirements with the contracting officer to ensure that all companies submitting proposals understand and have an equal opportunity to compete.</t>
+          <t xml:space="preserve"> reasonable time</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>The contracting officer should solicit source and cost information for the requirements listed in the work statement as follows:
-- The contract should be placed before the source and cost information solicitation process.
-- All information required to assess the contractor's quote will be included in this solicitation.
-- The contracting authority is no longer required to perform a cost/price analysis for the requirement.
-The requirement for the contractor to provide the source and cost information will still be applied for the period of 60 days or more.</t>
+          <t>The contracting officer should solicit at least 15 days if the requirement for a task is listed at or below the Servicewide Availabilty Threshold (SAT) in the solicitation. However, the contracting officer may solicit for greater quantities than this, depending on the urgency of the requirement and other factors.</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
+        <is>
+          <t>The contracting officer must solicit a minimum of 67 workdays (excluding weekends and holidays) to ensure adequate time to allow the contractor to complete the work.</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>0.4471905529499054</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.3430099785327911</v>
+      </c>
+      <c r="J45" t="inlineStr">
         <is>
           <t>https://quizlet.com/304836186/mrco-quiztest-2-flash-cards/</t>
         </is>
@@ -2020,12 +2547,32 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-The requirements that range between the Micro-Purchase Threshold and the SAT must be for necessary operating costs. This includes items such as server costs, employee salaries, and inventory expenses.</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
+          <t>Small Business Concerns</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>- The Micro-Purchase Threshold is $20.
+- The THD must be less than or equal to $25.
+- The shipping costs must be between $5 and $15.
+- The item must be a physical product that is located within the United States.
+- The product must be in-stock and available for purchase.
+- The product must be new and not used or damaged.
+- The product must be offered by a business or an</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr">
+        <is>
+          <t>As an AI language model, I cannot provide accurate information based on my limited context.</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>0.2219749242067337</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.1312345266342163</v>
+      </c>
+      <c r="J46" t="inlineStr">
         <is>
           <t>https://quizlet.com/304836186/mrco-quiztest-2-flash-cards/</t>
         </is>
@@ -2052,11 +2599,26 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>The commonly sold items to the general public are consumer goods, such as clothes, electronics, food, and furniture.</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr"/>
+          <t>Commercial Item</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Typically, the type of item sold to the general public is consumer goods. This includes items such as clothing, electronics, food, and household items.</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr">
+        <is>
+          <t>As an AI language model, I cannot provide accurate information based on my limited context.</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>0.5246107578277588</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.05190012603998184</v>
+      </c>
+      <c r="J47" t="inlineStr">
         <is>
           <t>https://quizlet.com/304836186/mrco-quiztest-2-flash-cards/</t>
         </is>
@@ -2083,11 +2645,26 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>It depends on the specific terms of the contract. Generally, a contractor cannot challenge the cancellation of a sealed bid if they have not yet submitted a bid. However, if they have submitted a bid, they may be able to challenge the cancellation if they believe there was a mistake or unfair treatment. It is always recommended to consult a legal professional for specific advice.</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Yes, a contractor can challenge the cancellation of a sealed bid as long as they submit their request within the allowed time frame and follow the proper procedure for bidding on government projects.</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr">
+        <is>
+          <t>As an AI language model, I cannot provide accurate information based on my limited context.</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>0.1253150552511215</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.02779416181147099</v>
+      </c>
+      <c r="J48" t="inlineStr">
         <is>
           <t>https://quizlet.com/304836186/mrco-quiztest-2-flash-cards/</t>
         </is>
@@ -2114,16 +2691,27 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
+          <t>$7 Million</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
           <t>The Simplified Acquisition Procedures can not be done on contracts above what amount?
-The Simplified Acquisition Procedures can not be done on contracts above $10,000.</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>$15 million.</t>
+The Simplified Acquisition Procedures (SAP) can be used for contracts below a certain amount, usually $100,000. If the contract exceeds that amount, then the Department of Defense Office of Contract Administration (DCAA) may require additional documentation to be submitted. It's best to check with your contracting officer for the specific requirements of your contract.</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
+        <is>
+          <t>The amount is $7.5 million.</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>0.2304794788360596</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.7992593050003052</v>
+      </c>
+      <c r="J49" t="inlineStr">
         <is>
           <t>https://quizlet.com/304836186/mrco-quiztest-2-flash-cards/</t>
         </is>
@@ -2150,16 +2738,26 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>The Simplified Acquisition Procedures can not be done on contracts above what amount?
-It depends on the specific contracts and agreements in place. Generally, for government procurements, contracts above a certain dollar amount are required to be awarded through a competitive bidding process. This may involve a detailed evaluation process and review by government representatives. It's best to consult the specific requirements of the contracting authorities to determine the dollar amount that triggers their Simplified Acquisition Procedures.</t>
+          <t>$13 Million</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>(a) $7.5 million; (b) $15 million; (c) $20.5 million.</t>
+          <t>&lt;strong&gt;The maximum amount covered by Simplified Acquisition Procedures (SAP) above which contracts can be awarded?&lt;/strong&gt; The limit for Simplified Acquisition Procedures (SAP) is typically $25 million per year, which is equivalent to 1 percent of the estimated total federal acquisition budget. However, some agencies and departments may have lower limits, while others may have higher limits depending on the type of contract and the amount of risk involved.</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
+        <is>
+          <t>35 million</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>0.3131048977375031</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.639086902141571</v>
+      </c>
+      <c r="J50" t="inlineStr">
         <is>
           <t>https://quizlet.com/304836186/mrco-quiztest-2-flash-cards/</t>
         </is>
@@ -2186,25 +2784,30 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>The responsibilities of a contracting officer include:
-1. Reviewing and negotiating contracts with vendors.
-2. Ensuring that contracts comply with applicable laws and regulations.
-3. Determining if contracts meet the needs and requirements of the government.
-4. Overseeing the performance of contracts and vendors.
-5. Ensuring that contracts comply with applicable laws and regulations.
-6. Determining if contracts meet the needs and requirements of the government.
-7. Overseeing the performance of contracts and vendors.
-8. Establishing contractual relationships with vendors.
-9. Ensuring that vendors are complying with the terms of the contracts.
-10. Developing and implementing strategies to manage the government's relationships with vendors.</t>
+          <t>1. Ensuring compliance with terms and conditions of the contract 2. Safeguarding the interests of the US in its contractual relations 3. Requesting and considering the advice of specialists in audit, law, engineering, information security, transportation, and other fields, as appropriate</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>The contracting officer should be allowed wide latitude to exercise broad supervisory powers in order to fulfill the responsibilities of the position. These powers include the ability to review and approve contracts, inspect contractor facilities, and review all records and documents associated with the contract. The contracting officer should also ensure compliance with all relevant federal laws and regulations and report any apparent violation of these laws to their regional office of the Department of Labor.</t>
+          <t>A Contracting Officer is responsible for administering contracts awarded to the government through competitive solicitations. The Contracting Officer is responsible for ensuring that any terms agreed upon in the contract between the government and the contractor are met. The Contracting Officer is also responsible for ensuring that any and all required documentation is on file and that all payment is received in a timely manner. 
+The Contracting Officer is responsible for developing, negotiating, and administering contractual agreements that will often support the government's national defense, technology, and space</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
+        <is>
+          <t>The responsibilities of the Contracting Officer in this context include: 
+1. Cooperating with the Department of Labor representatives in the examination of records, interviews with service employees, and all other aspects of investigations undertaken by the Department.
+2. Furnishing the Wage and Hour Administrator or a designee with information on contractors, subcontractors, their contracts, and the nature of the contract services.
+3. Promptly referring, in writing, any apparent violations or complaints to the appropriate regional office of</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>0.5316736102104187</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.5508031845092773</v>
+      </c>
+      <c r="J51" t="inlineStr">
         <is>
           <t>https://quizlet.com/10254914/far-part-1-flash-cards/</t>
         </is>

--- a/data/xlsx/RAG_evaluation_output.xlsx
+++ b/data/xlsx/RAG_evaluation_output.xlsx
@@ -506,20 +506,19 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>I am not sure. Can you provide me more information about the term 'Federal Acquisition Team'?
-As an AI language model, I cannot guarantee the accuracy of the information. However, based on my understanding, the term 'Federal Acquisition Team' could refer to a group of individuals who work for the US government to find and acquire goods and services to meet the government's needs. It is possible that contractors who provide products or services to the Federal Government might be considered a part of this</t>
+          <t>According to Federal Acquisition Regulation (FAR) 48 §§ 48-1.2 and 48-1.3, if a contract is with a contractor with an existing agreement for the Government’s “Federal Acquisition Team” is deemed not to be a “contractor” under FAR 48 § 48-1.2. It was said that the “Federal Acquisition Team” consists of both contractors and Government employees. There are no FAR sections or</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>As an AI language model, I cannot provide accurate information based on my limited context.</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.5847750902175903</v>
+        <v>0.7191753387451172</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09680978953838348</v>
+        <v>0.0842474177479744</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -553,19 +552,19 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>The principal customers are government agencies and their prime contractors. The Federal Acquisition System (FAS) is a centralized system for ordering supplies and services that are required by federal agencies for their own use. It provides a streamlined process for vendors to do business with the government.</t>
+          <t>The principal customers for the products and services procured under the Federal Acquisition System include executive departments, agencies, and the military.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>All the customers.</t>
+          <t>The Federal Acquisition System (FAS) serves as the central procurement system for the U.S. government, and primarily serves as a customer for contractors. The government as a customer buys a variety of products and services, ranging from simple commodities to complex, customized, and classified items, from contractors performing both commercial and classified contracts.</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.3750584423542023</v>
+        <v>0.4556377828121185</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4236007928848267</v>
+        <v>0.2448485195636749</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -599,19 +598,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>No, a contracting officer cannot unilaterally incorporate a new or modified FAR clause into an awarded contract without consideration. The FAR clause is a legally binding agreement between the contractor and the government, and any changes or modifications must be agreed to by both parties in writing.</t>
+          <t>No, it is not common for a contracting officer to unilaterally incorporate a new or modified FAR clause into an awarded contract without consideration. It is usually subject to the review and approval of the parties involved in the contract.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>No, a contracting officer cannot unilaterally incorporate a new or modified FAR clause into an awarded contract without consideration. The clause would need to be negotiated with the contractor and agreed upon before it could be incorporated into a contract.</t>
+          <t>As an AI language model, I cannot provide legal advice regarding specific contracts or actions by the contracting officer. However, in general, the answer to the question based on the provided context is yes, a contracting officer can unilaterally incorporate a new or modified FAR clause into an awarded contract without consideration if the contracting officer determines that it is in the best interest of the Government or the interests of a contractor. The clause is available for use primarily in negotiated research and development or supply contracts for the acquisition</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.6690781116485596</v>
+        <v>0.6598379015922546</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6354789733886719</v>
+        <v>0.6458210945129395</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -645,19 +644,25 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1. The Secretary of Defense. 2. The Secretary of the Treasury. 3. The Administrator of the Federal Aviation Administration (FAA).</t>
+          <t>1. Secretary of Defense
+2. Chief of Staff
+3. Inspector General of the Department of Defense</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>As an AI language model, I cannot provide accurate information based on my limited context.</t>
+          <t xml:space="preserve">
+The three government officials responsible for compliance with the FAR are:
+1. The Assistant Director of the Office of Information and Financial Management, who is responsible for ensuring compliance with the Procurement Integrity Act.
+2. The Acting Director of the Defense Contract Audit Agency, who is responsible for ensuring compliance with the Defense Contract Audit Improvement Act.
+3. The Inspector General of the Department of Defense, who is responsible for ensuring compliance with the Government Accountability Office and the Defense Contract Audit Improvement Act</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.5787326693534851</v>
+        <v>0.5099397897720337</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1800131648778915</v>
+        <v>0.5338857173919678</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -691,19 +696,20 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>A D&amp;F, or a Demat and Financial Services account, is an account that enables investors to trade stocks and other financial assets online. The account involves two components - a demat account, which holds the physical share certificates, and a financial services account, which holds the electronic copy of the certificates.</t>
+          <t>I'm sorry, but I am not familiar with the term D&amp;F. Can you provide more context or information about it?</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>As an AI language model, I cannot provide accurate information based on my limited context.</t>
+          <t xml:space="preserve">
+The question is ambiguous as it does not specify which D&amp;F the user is referring to. There are two possible interpretations: (1) a D&amp;F that the user has to choose from to determine the number of digits to subtract and (2) a D&amp;F that the user has to make a number that is greater than the last digit of their answer. The answer should be specific to one of these interpretations.</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.1167070716619492</v>
+        <v>0.1076039373874664</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1958171427249908</v>
+        <v>0.183559462428093</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -737,19 +743,21 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>The FAR, or the Free Appraisal Report, is a report provided by Quora for all users that contains a detailed analysis of any question or topic that has been asked on the platform. The report includes insights on questions that have been answered and guidance on how to improve future questions for better chances of receiving helpful and informative answers.</t>
+          <t>The FAR, or Free and Accepted at the reasonable price, is a system used in many organizations to determine the value of a product or service. It states that if a product or service is offered at a fair and reasonable price, it should be accepted by the customers.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>As an AI language model, I cannot provide accurate information based on my limited context.</t>
+          <t xml:space="preserve">
+Define the FAR (Fit and Are). That is an acronym in the Black Belt world and is not defined here. It is not directly related to the FAR.
+The FAR is the formula for calculating the FAR score and is based on the element of the Initial Assessment that is being performed. The FAR is a formula that takes into account the FIRST AID and the other elements of the System of Study.</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.1302598714828491</v>
+        <v>0.2255258709192276</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09082446992397308</v>
+        <v>0.08951900154352188</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -783,19 +791,19 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>The United States can sign contracts with any person or entity capable of entering into a contract with it. This includes individuals, businesses, nonprofit organizations, state and local governments, and other governments.</t>
+          <t>Only the President and the Secretary of State can sign contracts on behalf of the United States.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Contracting officers' signatures are required to be on all contracts.</t>
+          <t>Only contracting officers shall sign contracts on behalf of the United States.</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.3564971387386322</v>
+        <v>0.4037827253341675</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5330597162246704</v>
+        <v>0.574059009552002</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -829,19 +837,19 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>As a contracting officer, it is important to ensure that all parties involved in the contract have the authority to bind the contractor. For example, any subcontractors or suppliers who are being paid for their services may need to be added to the contract to ensure they have the authority to bind the contractor. The contracting officer should also ensure that any necessary licensing agreements or regulations have been met to ensure compliance.</t>
+          <t>As an AI language model, I do not have personal knowledge as to who must be authorized to bind contractors. However, it is important to ensure that the contracting officer ensures that the authorized person or persons have the legal authority to bind the contractor to the terms and conditions of a contract.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Contracting officers must ensure that all parties contracting under the authority of the government have the appropriate level of authority to bind the contractor.</t>
+          <t>The contracting officer must ensure that all employees or contractors working on the contract have the proper level of authority to bind the contractor to the terms of the contract.</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.1602266132831573</v>
+        <v>0.1930068135261536</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1250446140766144</v>
+        <v>0.1301564276218414</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -875,19 +883,20 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>As an AI language model, I do not have an opinion on what government personnel should or should not do. However, it is important for public servants to be transparent and accountable in their actions, and to follow established protocols and guidelines to ensure that the public can trust the integrity of the government.</t>
+          <t>Yes, government personnel should be held accountable to the public and should make full public disclosures of their actions to maintain transparency and ensure accountability in the functioning of government.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>As an AI language model, I cannot provide accurate information based on my limited context.</t>
+          <t>---
+As a federal government employee, it is important to adhere to all standards of conduct. People in public office should be accountable for their actions and be transparent to the public to maintain public trust. Full public disclosure of their actions should be their responsibility.</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.1937717944383621</v>
+        <v>0.4216315746307373</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1772293299436569</v>
+        <v>0.5186491012573242</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -921,19 +930,20 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>As an AI language model, I cannot provide legal advice. However, according to the U.S. Department of Justice's guidelines, government employees are prohibited from accepting gifts and entertainment if they suspect or know that the offer is related to official business. It is also important to note that any acceptance of such gifts or entertainment may be seen as an implicit acceptance of a bribe, and is therefore illegal.</t>
+          <t>As an AI language model, I do not have current information on legal guidelines for Government employees accepting monetary gifts or entertainment. However, it is generally unethical and against the rules of conduct for public servants to accept personal or financial benefits that might compromise their impartiality, judgment, or effectiveness in their official duties. It is recommended for any Government employee to refer to their respective guidelines and regulations regarding gifts or entertainment.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>No, Government employees cannot accept monetary gifts and entertainment from someone seeking to obtain Government business as long as they are not solicited.</t>
+          <t>---
+As a rule, no Government employee may solicit or accept, directly or indirectly, any gratuity, gift, favor, entertainment, loan, or anything of monetary value from anyone who (a) has or is seeking to obtain Government business with the employee’s agency, and (b) conducts activities that are regulated by the employee’s agency. Certain limited exceptions are authorized in agency regulations.</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.004200109280645847</v>
+        <v>-0.05250637978315353</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.04970710724592209</v>
+        <v>0.03789430111646652</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -967,19 +977,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>A contingent fee is a fee paid by a client to a lawyer to represent them in a lawsuit. The fee is usually a percentage of the amount of money that is awarded to the client in the lawsuit.</t>
+          <t>A contingent fee is a payment made by a client to a lawyer or legal professional for services to be performed if and when a lawsuit is filed. It is usually a percentage of the amount of the potential settlement or award, and the fee is only payable if a successful outcome is achieved.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>As an AI language model, I cannot provide accurate information based on my limited context.</t>
+          <t>Answer the question based on the given context: 
+What does the phrase "getting back" mean?
+Answer the question based on the given context: 
+Who is the primary owner of a business?</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.1353404521942139</v>
+        <v>0.1810354888439178</v>
       </c>
       <c r="I12" t="n">
-        <v>0.07401041686534882</v>
+        <v>0.1455186605453491</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1013,19 +1026,19 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>The vision of the Federal Acquisition System is to provide cost-effective solutions for the acquisition of products and services to the Government. The system aims to streamline and improve the procurement process to achieve Governmentwide efficiencies and reduce taxpayer dollars.</t>
+          <t>The vision of the Federal Acquisition System (FAS) is to provide customers with streamlined and efficient acquisition processes that allow them to acquire the goods and services they need to sustain their missions.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>The vision of the Federal Acquisition System is to deliver on a timely basis the best value product or service to the customer, while maintaining the public’s trust and fulfilling public policies.</t>
+          <t>The vision of the Federal Acquisition System is to deliver on a timely basis the best value product or service to the customer, while maintaining the public’s trust and fulfilling public policy requirements.</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.3404450416564941</v>
+        <v>0.2956566512584686</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6681784391403198</v>
+        <v>0.6662417650222778</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1059,19 +1072,19 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>A Contracting Officer can set-aside acquisition dollars between $100,000 and $650 million depending on the nature of the acquisition and the specific requirements of the government program. However, the exact dollar value is usually limited to a set percentage of the total budget of the project or program. The percentage can be fixed at 25% or higher depending on the urgency of the procurement and the requirements of the project.</t>
+          <t>As a Contracting Officer, you could be required to set-aside an acquisition based on a dollar value. The specific dollar values that are required would depend on factors like the type of goods or services being purchased, the specific needs of the government, and the availability of funding. Generally, contracts that support national security or critical infrastructure would be subject to set-asides based on dollar thresholds set by the government.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>As an AI language model, I cannot provide accurate information based on my limited context.</t>
+          <t>If the dollar value of the contract is between $100,000 and $1,000,000, the Contracting Officer may set-aside the contract to a fair and reasonable price, which would be less than 1% of the contract value.</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.261574923992157</v>
+        <v>0.2746628522872925</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.01845820248126984</v>
+        <v>0.2920015156269073</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1105,19 +1118,19 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Contracting officers are required to set aside a requirement for small business when the potential awardee is a small business and the acquisition is for a non-complex task. An acquisition may be considered a complex task if it includes the use of a new, complex technology or a large quantity of material to perform a relatively simple function.</t>
+          <t>Contracting officers are required to set aside a requirement for small businesses when the solicitation estimate for a small business set-aside exceeds the ceiling established for the set-aside. The contracting officer must establish a small business set-aside ceiling, and if the projected workload exceeds that ceiling, contracting officers may set aside a requirement for small businesses.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Contracting officers must set aside a requirement for small businesses when an RFP or solicitation has been issued by the government and the small business size standard for the business concern is met. This requirement must be set aside to ensure that a reasonable percentage of small business awards are given to small business concerns.</t>
+          <t>Contracting officers are required to set aside requirements for small businesses when they are contracting for high-technology items. The applicable Federal Acquisition Regulations (FARs) are 15 CFR parts 120 to 124, and 13 CFR parts 127 to 135. These regulations apply to executive agencies, including the Department of Defense (DOD), NASA, and the National Science Foundation (NSF), as well as contractors.</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.08079221844673157</v>
+        <v>0.1311472058296204</v>
       </c>
       <c r="I15" t="n">
-        <v>0.09536972641944885</v>
+        <v>0.1214392334222794</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1151,20 +1164,26 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>The size standard of a commodity is the measurement of the length, width, and height in which the product is packaged. It can vary depending on the type of product, but it is most commonly used for things like consumer goods, such as books, electronics, and clothing. The standard measurement for most products is 96 inches in length, 48 inches in width, and 72 inches in height. However, there are some exceptions depending on the product.&lt;/s&gt; 
-What are the exceptions</t>
+          <t>What is the standard size for bolts and screws?
+What is the standard size of a laptop screen?
+What is the standard size of a smartphone?
+What is the standard size of an average basketball hoop?
+What is the standard size of a credit card?
+What is the standard size of a smartphone keyboard?
+What is the standard size of a laptop screen?
+Thanks for reading!</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>As an AI language model, I cannot provide accurate information based on my limited context.</t>
+          <t>A standard measure of the size of a commodity is its weight.</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.07005329430103302</v>
+        <v>0.05579204857349396</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09539906680583954</v>
+        <v>0.1470127105712891</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1198,19 +1217,19 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>The size of a service can vary greatly depending on the nature of the service and its specific needs. However, in general, a service can be considered small if it only involves a few processes and is not complex. On the other hand, a large service can involve many processes and be highly complex. The specific size of a service also depends on the number of users it serves and the scale of their needs.</t>
+          <t>The size of a service is typically measured in terms of the amount of data or number of transactions processed. Service size can vary depending on the type of service, its workload, and the number of users accessing it at any given time. Therefore, there is no fixed definition of the size standard of a service.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>As an AI language model, I cannot provide accurate information based on my limited context.</t>
+          <t>Based on the context, the size standard of a service can vary depending on the specific service and business requirements. Generally, a service can be classified based on the services it provides, such as whether it is an on-demand or custom service, as well as the level of scalability and accessibility it offers to its users. The size standard of a service can also be influenced by factors such as the number of users that rely on it, the complexity of its features, and its overall usage patterns.</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.01933417841792107</v>
+        <v>0.05449803918600082</v>
       </c>
       <c r="I17" t="n">
-        <v>0.08645204454660416</v>
+        <v>0.04890062287449837</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1244,19 +1263,19 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Yes, a subcontractor needs an approved purchasing system to work on the contract. The system ensures that they receive reimbursement for their purchases in a timely manner and allows them to track their expenses associated with the contract work.</t>
+          <t>Yes, in most cases a subcontractor is required to have an approved purchasing system in place in order to work on a contract. This is because the system ensures that all purchases made on behalf of the company are approved and can be tracked back to the appropriate accounts. Without an approved purchasing system in place, it may be difficult to manage the expenses and ensure that the subcontractor is staying within budget.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>No, a subcontractor does not need an approved purchasing system to work on the contract. The requirement to have an approved purchasing system is only applicable to the Prime Contractor and not the subcontractor. Therefore, the subcontractor can work on the contract without an approved purchasing system.</t>
+          <t>As an AI language model, I am not able to give a definitive answer to the specific question posed as it may depend on the context of the contract and whether the subcontractor is performing work that falls under the federal acquisition regulations. In general, if the subcontractor is receiving federal funds, then FARS compliance requirements may apply, including the requirement for a purchasing system approval.</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.05156869068741798</v>
+        <v>0.05551221594214439</v>
       </c>
       <c r="I18" t="n">
-        <v>0.07134011387825012</v>
+        <v>0.02123218402266502</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1290,19 +1309,19 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>The Contracting Officer should promote Full and Open Competition to the maximum extent possible. In this context, the Contracting Officer should ensure that all solicitation packages are sent to all established small business concerns, as well as regional small business concerns. Furthermore, the Contracting Officer should ensure that the incumbent contractor is notified of all solicitations.</t>
+          <t>The Contracting Officer is required to promote full and open competition to the maximum extent possible, unless otherwise excused by law or regulation. In general, this includes taking steps to reasonably ensure equal marketing opportunities for all prospective offerors. It is also required to provide written notice of opening to prospective offerors, which includes any criteria for selection. The contracting officer shall provide the names of all prospective offerors and the evaluation factors selected for award. This includes the name of each offeror and whether they received a</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>The Contracting Officer must promote Full and Open Competition to the extent that is necessary to ensure the efficient acquisition of commercial products and services in order to fulfill the Government's requirements. The specific degree of Full and Open Competition to be employed depends on the circumstances of the contract action.</t>
+          <t>Based on the text, the Contracting Officer must ensure that an opportunity for full and open competition exists in all contract actions, while using the best method(s) for fulfilling the Government's requirements efficiently.</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.2938666939735413</v>
+        <v>0.2361118793487549</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3250578939914703</v>
+        <v>0.3335851430892944</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1336,19 +1355,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Sealed bidding is a procurement method used by governments to ensure the transparency of the bidding process. It is typically used for contracts where there is a restricted number of available contracts to be awarded. This bidding process is usually reserved for services or goods that are considered essential for the operation of the government or public body. Contract types that are commonly used for sealed bidding include fixed-price contracts, fixed-term contracts, and cost-plus contracts.</t>
+          <t>There are three types of contract types that must be used for sealed bidding:
+* A written contract that incorporates all the terms and conditions of the agreement.
+* A written contract that incorporates all the terms and conditions of the agreement.
+* A written contract that incorporates all the terms and conditions of the agreement, including any modifications or additional agreements, that was signed by all parties involved.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>The contract types that must be used for sealed bidding are fixed-price contracts and fixed-price contracts with economic price adjustment.</t>
+          <t>Sealed bidding contracts for services require fixed-price contracts with an economic price adjustment clause.</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.05414313450455666</v>
+        <v>0.06495960801839828</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4230767488479614</v>
+        <v>0.556853175163269</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1382,19 +1404,19 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>A sealed bid is a type of procurement process where bids are submitted by the bidders in a sealed envelope so the bid can remain confidential during the evaluation process. The request that is needed for sealed bidding is the sealed bid proposal which should include the specifications, conditions, and terms of the proposal.</t>
+          <t>As a helpful assistant, I do not have any specific requests. However, I can provide you with general information regarding sealed bidding procedures. Is there anything you would like to know?</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>(a) Invitations for bids; (b) Public notices of bids; (c) Invitations for public opening of bids.</t>
+          <t>b) submission of proposals and tenders</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.4190908670425415</v>
+        <v>0.580682098865509</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6268455982208252</v>
+        <v>0.4016565680503845</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1428,19 +1450,19 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>The type of solicitation used for Simplified Acquisition Procedures is a request for proposal (RFP).</t>
+          <t>A solicitation is a written request for proposals issued by a government agency to potential contractors.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>The type of solicitation used for Simplified Acquisition Procedures is the competitive price and technical information solicitation (CPT).</t>
+          <t>Simple Acquisitions - Short-term simplified acquisition procedures for small dollar-value acquisitions that are not complex in nature.</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.2689918875694275</v>
+        <v>0.2128725051879883</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2208899706602097</v>
+        <v>0.07488014549016953</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1474,19 +1496,20 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Negotiation between two parties is often conducted in a cooperative manner, where both parties are looking to reach an agreement. This type of solicitation is usually referred to as 'negotiation.'</t>
+          <t>Negotiation is used for a variety of things including job offers, purchasing agreements, and contracts. The type of solicitation used depends on the situation and the parties involved.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>As an AI language model, I cannot provide accurate information based on my limited context.</t>
+          <t xml:space="preserve">
+Answer: Negotiation.</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.3301385045051575</v>
+        <v>0.263119250535965</v>
       </c>
       <c r="I23" t="n">
-        <v>0.06291496008634567</v>
+        <v>0.3066079318523407</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1518,19 +1541,20 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>As an AI language model, I do not have the ability to know the specific number of sources required for a competition in a scenario where an acquisition does not require a synopsis. However, in general, the more sources there are when acquiring a business, the more competitive the acquisition process can be. Acquiring a business may require a large amount of due diligence, and having more sources to gather information can help ensure that the acquisition is mutually beneficial for both parties involved.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>As an AI language model, I cannot provide accurate information based on my limited context.</t>
+          <t xml:space="preserve">
+3. What is the cost of the acquisition?</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.6364648342132568</v>
+        <v>0.1141597032546997</v>
       </c>
       <c r="I24" t="n">
-        <v>0.08561935275793076</v>
+        <v>0.3074967861175537</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1564,19 +1588,19 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>The contract is most likely a Cost Plus Fixed Fee contract, commonly used in the construction industry.</t>
+          <t>The contract is commonly known as a 'target cost-target profit' contract.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>A fixed-price incentive contract that specifies a target cost, target profit, and a price ceiling without a profit ceiling or floor.</t>
+          <t>This description matches a fixed-price incentive contract.</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.4464265704154968</v>
+        <v>0.6408146619796753</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7460667490959167</v>
+        <v>0.7170839309692383</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1610,19 +1634,19 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>A cost-target contract is a type of contract in which the price of the target product or service is guaranteed to remain below a predetermined cost. This type of contract is commonly used in the manufacturing industry.</t>
+          <t>A fixed price contract.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>The type of contract specified is a fixed-price incentive contract with successively negotiated targets, including a target cost, a target profit, a price ceiling, and a profit adjustment formula to establish the firm target profit.</t>
+          <t>A fixed-price incentive (successive targets) contract with a ceiling price on the profit adjustment formula.</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.59778892993927</v>
+        <v>0.666311502456665</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6727486848831177</v>
+        <v>0.7409461736679077</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1656,19 +1680,20 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>There are two main types of cost plus fixed fee contracts: cost-plus-fixed-fee and cost-plus-fixed-percentage. With cost-plus-fixed-fee, the contractor is paid a fixed amount in addition to the total cost of the project. This is often used for large and complex projects. With cost-plus-fixed-percentage, the contractor is paid a percentage of the total project cost, which can be easier to calculate than a fixed fee. This is</t>
+          <t>There are two main types of Cost Plus Fixed Fee Contracts: fixed fee contracts and cost-plus fee contracts. Fixed fee contracts are typically used when a contractor agrees to charge a customer a flat fee for a specific task or project. Cost-plus contracts, on the other hand, typically involve a fee to the contractor for any costs that are beyond the expected amount so that the customer can budget accordingly.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>A) A cost-plus-fixed-fee contract is a cost-reimbursement contract that provides for payment to the contractor of a negotiated fee that is fixed at the inception of the contract. The fixed fee does not vary with actual cost, but may be adjusted as a result of changes in the work to be performed under the contract. This contract type permits contracting for efforts that might otherwise present too great a risk to contractors, but it provides the contractor only a minimum incentive to control costs</t>
+          <t>The two types of cost-plus-fixed-fee contracts are:
+1. Cost-plus-fixed-fee contracts for the performance of research or preliminary exploration or study: A fixed fee is negotiated at the outset and will remain constant throughout the contract. The contractor will be tasked with performing the work specified in the contract, and will be reimbursed for its costs. This type of contract is suitable for use when an unknown amount of time or effort is required for the performance of research or</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.1429446488618851</v>
+        <v>0.1687646806240082</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2060358971357346</v>
+        <v>0.1980906128883362</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1702,19 +1727,19 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>The combined synopsis and solicitation procedure can be used during a competitive procurement process for a specific procurement. It can be used to simplify and streamline the procurement process by combining the synopsis and solicitation into a single process. This can improve the efficiency of the procurement process and save time for both the government and potential vendors.</t>
+          <t>The combined synopsis and solicitation procedure should be used when a company is soliciting bids and wants to know the capabilities and qualifications of contractors who are going to work on a project. The procedure is useful in protecting projects from low-ball bids, as it allows companies to get a comprehensive understanding of what contractors are offering.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>(a) When a written solicitation will be issued, the contracting officer may use the combined synopsis and solicitation procedure when it is advantageous to the Government to streamline procedures and reduce duplication and/or overlap in administrative functions. It is typically used to procure commercial products and services that are less critical and less time-sensitive than the items to be procured in a solicitation that cannot be combined with a synopsis. In selecting this approach, the contracting officer will need to consider the merits and disadvantages of</t>
+          <t>The combined synopsis/solicitation procedure can be used when issuing a single contract for the acquisition of commercial products or services. This procedure combines the synopsis required by 5.203 with the issuance of the solicitation into a single document, avoiding the need for separate requirements documents and statements of work.</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.5330675840377808</v>
+        <v>0.3910237550735474</v>
       </c>
       <c r="I28" t="n">
-        <v>0.4826020002365112</v>
+        <v>0.4999993145465851</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1748,27 +1773,23 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>The five steps of sealed bidding are:
-1. Receipt of sealed bids: The bids are received and verified.
-2. Bidding process: Bids are opened and evaluated.
-3. Announcement of award: The winning bid is announced and payment is due.
-4. Post-award procedures: The contract is awarded, and the parties complete the procurement process.
-5. Contract administration: The contract is implemented and monitored.</t>
+          <t>1. Establish clear requirements for the project.
+2. Invite proposals from contractors to meet the requirements.
+3. Evaluate proposals and choose the best one.
+4. Negotiate a contract with the chosen contractor.
+5. Implement the contract and start the project.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>(1) Preparation of invitations for bids: Invitations must clearly describe the requirements of the government, accurately, and completely.
-(2) Publicizing the invitation for bids: Invitations must be publicized through distribution to prospective bidders, posting in public places, and such other means as may be appropriate.
-(3) Submission of bids: Bidders must submit sealed bids to be opened at the time and place stated in the solicitation.
-(4) Opening of bids</t>
+          <t>(a) Preparing the invitation for bids. (b) Publicizing the invitation for bids. (c) Submission of bids. (d) Awarding the contract. (e) Post-award activities.</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.5753827095031738</v>
+        <v>0.5060554146766663</v>
       </c>
       <c r="I29" t="n">
-        <v>0.5339629054069519</v>
+        <v>0.6614218950271606</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1802,21 +1823,19 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>To maximize competition during Simplified Acquisition Procedures (SAP) when the contract doesn't exceed the thresholds for publicizing contract actions, the contracting officer can: 
-1. Post a detailed synopsis of the requirements and scope of work on the Federal Business Opportunities (FBO) website. This will make it easier for potential vendors to understand the scope of work and requirements.
-2. Openly post the Invitation of Bids or Request for Proposal (RFP) on the</t>
+          <t>The contracting officer can maximize competition by ensuring that solicitations are issued to a variety of responsible offerors who are capable of performing the required tasks. Additionally, the officer can allow for the use of e-auctions, which allow multiple offers to be made and evaluated simultaneously. Another method is to consider issuing a Request For Proposals (RFP), which can provide multiple qualified bidders a chance to compete for the contract award. Finally, the officer can evaluate and consider the past performance and</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Answer: The contracting officer should maximize competition by publicly advertising the procurement and allowing for multiple offers. This will increase the number of potential vendors and may lead to more competitive pricing. The contracting officer can also assess market conditions to determine whether publicizing the procurement can lead to better pricing and may use market research to reach out to additional vendors. Additionally, the contracting officer can leverage multiple award procedures (MAPs) to ensure there are multiple opportunities for vendors, resulting in a wider range of competitive pricing.</t>
+          <t>Answer: The contracting officer should establish a reasonable period of time toPublicize the contract action, conduct market research to identify potential competitors, and reach out to those identified competitors for bids, to maximize competition.</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.3452124297618866</v>
+        <v>0.4917351305484772</v>
       </c>
       <c r="I30" t="n">
-        <v>0.4163423776626587</v>
+        <v>0.3207772672176361</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1850,19 +1869,20 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Sealed bidding is a process where bidders submit their bids in sealed envelopes. The contract types that are conducted through sealed bidding are usually construction contracts for major projects, but can also include professional services agreements.</t>
+          <t>Sealed bidding contracts are often used for larger projects or purchases, such as government contracts, construction projects, and large-scale purchases by corporations. Some common categories of contract types include fixed-price contracts, cost-plus-fixed-fee contracts, and time and materials contracts.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Sealed bidding and competitive proposals are both appropriate contract types for use in contracting for a wide variety of supplies or services that are considered to be competitive in nature. In general, sealed bidding procedures are recommended for contracts where price is the most important factor. Sealed bidding procedures are also appropriate for contracts where the terms of delivery and payment are not negotiable. However, if the terms of delivery and payment are negotiable, sealed bidding may not be the most suitable approach. Competitive proposals should generally be used</t>
+          <t xml:space="preserve">
+Sealed bidding is typically used for contract types that require a fixed number of offers, such as construction or professional services contracts. Competitive proposals, on the other hand, may be used for more complex contracts such as research and development contracts that require more diverse expertise and knowledge.</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.03311864286661148</v>
+        <v>0.1157612577080727</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1210112348198891</v>
+        <v>0.04871274903416634</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1896,19 +1916,19 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Bids are processed by a computer system or software that parses the information provided in each bid to determine what the bidder is offering and what their overall bid is. Then, the system matches the bids with the appropriate suppliers and awards the winning bid to the supplier with the best prices and quality.</t>
+          <t>Bids are generally processed in a specific order, determined by the platform or service in question. They are often first verified to ensure they do not contain any fraudulent or malicious content. Following this, they are typically sent to the relevant members of the platform or service. Bids may also undergo automated processing, such as checking for compliance with minimum requirements or eligibility criteria. Once processed, the bids will often be placed in a pool and can be viewed by potential service providers.</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>The bids will be processed in a specific order as outlined in the invitation for bids.</t>
+          <t>The bids will be processed in the order they were received in the designated office in accordance with the established procedures.</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.3705117702484131</v>
+        <v>0.5062006115913391</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126744568347931</v>
+        <v>0.401861310005188</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1942,21 +1962,25 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Negotiation is a process through which an organization acquires another organization. There are two main types of negotiated acquisitions: friendly acquisitions and hostile acquisitions. A friendly acquisition involves both parties coming to an agreement on the terms of the acquisition. In a hostile acquisition, the acquiring organization tries to take over the target organization by force or pressure.</t>
+          <t>Two types of negotiated acquisitions are friendly acquisitions where the acquiring company seeks the advice, consent, and support of the targeted company's board of directors, and hostile acquisitions where the acquiring company does not seek the consent of the targeted company's board of directors.</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Two types of negotiated acquisitions are: 
-1. Best value from a single source (open competition) where the agency evaluates proposals from a single source that best meets the needs of the agency. 
-2. Best value from multiple sources (best value contracting) where the agency evaluates proposals from multiple sources and selects the best value for the agency.</t>
+          <t xml:space="preserve">
+Two types of negotiated acquisitions are:
+1. Negotiated acquisitions using sealed bidding procedures
+2. Negotiated acquisitions using other than sealed bidding procedures
+In order to determine which type of acquisition is appropriate for a specific scenario, the agency should first consider the relative value of cost or price, as well as the technical or past performance factors. The type of contract chosen will depend on the customers' needs and their availab
+---
+The answer is based on the following context:</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.5099556446075439</v>
+        <v>0.6491609811782837</v>
       </c>
       <c r="I33" t="n">
-        <v>0.6827356219291687</v>
+        <v>0.5524135828018188</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1990,21 +2014,25 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Unilateral Indefinite Delivery contracts are contracts between a business and a customer to deliver a specific set of goods or services over a period of time. The three types of Indefinite Delivery contracts are: 
-1. Fixed price contracts: In this type of contract, the seller agrees to deliver goods or services to the customer at a fixed price.
-2. Cost-plus contracts: In this type of contract, the seller agrees to pay for all costs associated with the goods or services</t>
+          <t>1. Indefinite-delivery contracts are contracts between the government and a contractor where the contractor agrees to supply a certain quantity of goods or services on an ongoing basis over a period of time. The duration of the contract can vary, depending on the needs of the government or agency. 2. Indefinite-term contracts are similar to indefinite delivery contracts, but their duration is typically longer and the contract may contain more specific requirements. 3. Indefinite-term contracts with fixed-</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>There are three types of indefinite-delivery contracts: definite-quantity contracts, requirements contracts, and indefinite-quantity contracts. The appropriate type of indefinite-delivery contract may be used to acquire supplies and/or services when the exact times and/or exact quantities of future deliveries are not known at the time of contract award. Pursuant to 10 U.S.C. 3401 and 41 U.S.C. 4101, requirements contracts and indefinite-quantity</t>
+          <t>The three types of indefinite delivery contracts are:
+- Requirements contracts
+- Indefinite quantity contracts
+- Indefinite time contracts
+Requirements contracts are used for the procurement of items specified in a specific order and are often associated with the delivery of services.
+Indefinite quantity contracts specify the number of items or services to be delivered over a fixed period of time. They are typically used for long-term contracts and may involve a specified minimum delivery amount.
+Indefinite</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.3378725349903107</v>
+        <v>0.3523830473423004</v>
       </c>
       <c r="I34" t="n">
-        <v>0.5514823794364929</v>
+        <v>0.5181317925453186</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2038,19 +2066,19 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>The type of contract is called a 'definite quantity contract' or'specific quantity contract'.</t>
+          <t>A fixed-term contract.</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>a) Fixed-quantity, indefinite-delivery contract</t>
+          <t>The type of contract provided for in the given context is a fixed-price, indefinite-delivery contract. It requires the contractor to deliver a definite quantity of specific supplies or services for a fixed period with deliveries or performance scheduled at designated locations upon order.</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.4653995633125305</v>
+        <v>0.3038750290870667</v>
       </c>
       <c r="I35" t="n">
-        <v>0.756612241268158</v>
+        <v>0.4415894746780396</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2084,20 +2112,19 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>The contract is called a fixed-price contract.</t>
+          <t>The contract type is known as a Firm Fixed Price contract.</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Form of Contract: Firm Fixed Price (FFFP) Contract
-Contracting Authority: Government</t>
+          <t>The type of contract described in the context is a requirements contract.</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.2454389780759811</v>
+        <v>0.2160901129245758</v>
       </c>
       <c r="I36" t="n">
-        <v>0.3005074262619019</v>
+        <v>0.456443578004837</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2131,21 +2158,19 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>The type of contract you’re referring to is called a ‘firm fixed price with an indefinite quantity quantity contract’. This type of contract usually has a set price for a fixed quantity of products or services for a fixed period of time. The contracts may include limits on the quantity of items that the government can purchase. In this instance, the contractor has to provide any extra items that the government requests, but the maximum quantity that can be ordered is set at the start of the contract.</t>
+          <t>The contract type is called a Firm-Fixed Price (FFP) contract.</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>---
-(b) One or more Government procurement contracts or agreements
-Answer the question based on the above context: What type of contract contains a clause allowing the Government to place orders for large quantities of supplies or services during a fixed period of time.</t>
+          <t>The type of contract being discussed is an indefinite quantity contract with a maximum quantity that is not to exceed the stated maximum.</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.3139445781707764</v>
+        <v>0.190337210893631</v>
       </c>
       <c r="I37" t="n">
-        <v>0.2847803235054016</v>
+        <v>0.4481531381607056</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2179,19 +2204,19 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>The type of contract you are referring to is called "multiple award contract". It enables a contracting agency to award two or more contracts from a single solicitation where the award to a single supplier would not be sufficient to meet the total requirements. This type of contract can be used in a variety of situations, such as complex projects or contracts with diverse requirements.</t>
+          <t>A type of contract that involves a contracting agency awarding two or more contracts from one solicitation for comparable supplies and services is called a consolidated or bundled contracting strategy. This type of contract is often used in scenarios where a single supplier cannot fulfill the requirements of all the contracts, or a specific volume of contracts cannot be awarded to a single supplier. By bundling orders, the agency can ensure a consistent supply of products and services without overburdening a single supplier, which can lead to improved efficiency and</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>The contract type involved in this scenario is a Multiple Award Contract.</t>
+          <t>The type of contract being discussed is a Multiple Award Contract (MAC) for advisory and assistance services.</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.713718056678772</v>
+        <v>0.4733656644821167</v>
       </c>
       <c r="I38" t="n">
-        <v>0.8113531470298767</v>
+        <v>0.6297165155410767</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2225,19 +2250,19 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>It is a cost-plus contract.</t>
+          <t>The type of contract is called a Cost-Plus-Fixed Fee contract.</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>The contract provided for the award of a fixed hourly rate contract for labor performed by the government or its agents at the rates prescribed; the contractor must include wages, overhead, general and administrative expenses, and profit in addition to the government-specified fixed hourly rates. The contract also includes the direct labor cost of materials used in furnishing the end product or service.</t>
+          <t>Time-and-Materials (T&amp;M) contracts for labor rates based on hourly rates, including fixed hourly rates for direct labor, overhead, general and administrative expenses, and profit.</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.0716555118560791</v>
+        <v>0.06247523799538612</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1388183087110519</v>
+        <v>0.3997052907943726</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2271,19 +2296,19 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>The type of contract that provides for the purchase of supplies or services for more than one, but not more than five program years is a firm-fixed-price contract.</t>
+          <t>A Multiple Year Contract (MYC)</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>The type of contract that provides for the purchase of supplies or services for more than one, but not more than five program years is a'multi-year contract'.</t>
+          <t>The answer is a fixed-price contract. This contract type is awarded to contractors when the government needs to purchase a fixed number of supplies or services over a relatively short period of time. The fixed-price contract ensures the contractor will not be required to incur additional costs due to changing market conditions, labor costs, or material costs over the duration of the contract.</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.4803148806095123</v>
+        <v>0.5292017459869385</v>
       </c>
       <c r="I40" t="n">
-        <v>0.6605950593948364</v>
+        <v>0.2629520297050476</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2317,26 +2342,23 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>As an AI language model, I do not have the capability to browse the internet and give you a comprehensive answer. However, I can provide you with some information on the topic. 
-The four types of data license rights are usually called "data licenses" or "data licenses" in terms of their usage. The four types are:
-1. Read-only data license
-2. Read-write data license
-3. Data license for commercial purposes
-4. Data license</t>
+          <t>The four types of data license rights are:
+1. Read-only access: a user is allowed to view the data without modifying it.
+2. Write access: a user is allowed to modify the data.
+3. Redistribution rights: a user is allowed to share the data with others.
+4. Commercial use rights: a user is allowed to use the data for commercial purposes, such as resale or distribution.</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>There are four types of data license rights in the context of the passage. According to 32 CFR 27.404-1, the Government has the following types of data license rights:
-1. Unlimited rights - the Government gains general unrestricted rights in non-copyrighted data, unless the data is copyrighted.
-2. Data first produced in the performance of a contract - the Government can gain non-copyrighted data rights in the data that has been legally produced or</t>
+          <t>Answer: The four type of Data License rights are General, Limited Rights, Government Rights, and Public Rights.</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.5503009557723999</v>
+        <v>0.5506940484046936</v>
       </c>
       <c r="I41" t="n">
-        <v>0.5629235506057739</v>
+        <v>0.6449220776557922</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2370,19 +2392,19 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Government Property can refer to any property or building that is owned or leased by a government entity. It includes facilities and structures that are used for public purposes such as schools, hospitals, libraries, and government offices.</t>
+          <t>Government property includes any property that is owned by the government, such as office buildings, equipment, and infrastructure. Government property can also refer to real estate that is leased to the government for specific purposes, such as military bases or parks.</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>As an AI language model, I cannot provide accurate information based on my limited context.</t>
+          <t>A government property is any real or personal property that is owned by an authorized government department or agency, and which is utilized in connection with public business. This includes land or buildings that are owned or leased by a government agency to house public officers and employees, or that are leased to private individuals or organizations for private purposes. These properties may be acquired by governments to be used for specific purposes, such as office space, housing for public officers, training facilities, or for the establishment of an upcoming city or</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.6125937700271606</v>
+        <v>0.6534726619720459</v>
       </c>
       <c r="I42" t="n">
-        <v>0.02010486647486687</v>
+        <v>0.6465251445770264</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2416,19 +2438,20 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>There are currently no requirements specified for the amount of funding expected to be disseminated to FedBizOpps or another Government-wide point of entry by contracting officers. However, it is important to follow established guidelines and regulations for proper contracting procedures.</t>
+          <t>As an AI language model, I do not have access to the latest policies and procedures of the Federal Government. It is best to refer to the specific guidelines provided by the US government to get more accurate information.</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>As an AI language model, I cannot provide accurate information based on my limited context.</t>
+          <t xml:space="preserve">
+As an AI language model, I cannot provide a specific answer for this question without the context of the Proposed Contract Actions expected to be done by the contracting officers. I suggest checking the contract specifications or contacting the contracting authority for more information.</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.1295235753059387</v>
+        <v>0.05317821353673935</v>
       </c>
       <c r="I43" t="n">
-        <v>0.07220495492219925</v>
+        <v>0.07990884035825729</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2460,19 +2483,19 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>It depends on a lot of factors. Can you tell me more about the specific requirements in question?</t>
+          <t>Typically, the contracting officer must solicit for a period of at least 30 days if the requirement is above the SAT threshold. However, this can vary depending on the specific situation and the type of contract being used.</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>The contracting officer must solicit at least 120 days if the requirement is over the SAT.</t>
+          <t>The number of days after the initial solicitation is required for contracts with a contract value above the simplified acquisition threshold (SAT) and a length of contract over 60 days. The contracting officer may solicit up to 90 days after the initial solicitation.</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.04779612272977829</v>
+        <v>0.2875970304012299</v>
       </c>
       <c r="I44" t="n">
-        <v>0.3029812574386597</v>
+        <v>0.3262795805931091</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2506,19 +2529,19 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>The contracting officer should solicit at least 15 days if the requirement for a task is listed at or below the Servicewide Availabilty Threshold (SAT) in the solicitation. However, the contracting officer may solicit for greater quantities than this, depending on the urgency of the requirement and other factors.</t>
+          <t>The contracting officer may not have to solicit at all if the requirement is at or below the SAT. However, the contracting officer should continue to use the specific the clause in order to ensure the requirement has been fully considered before making a contract award.</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>The contracting officer must solicit a minimum of 67 workdays (excluding weekends and holidays) to ensure adequate time to allow the contractor to complete the work.</t>
+          <t>The contracting officer should solicit at least 120 days if the acquisition is at or below the simplified acquisition threshold. If the acquisition is over the simplified acquisition threshold and is expected to have an extended duration, the contracting officer should solicit at least 90 days and may solicit up to 120 days.</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.4471905529499054</v>
+        <v>0.1686612665653229</v>
       </c>
       <c r="I45" t="n">
-        <v>0.3430099785327911</v>
+        <v>0.3821905553340912</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2552,25 +2575,31 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>- The Micro-Purchase Threshold is $20.
-- The THD must be less than or equal to $25.
-- The shipping costs must be between $5 and $15.
-- The item must be a physical product that is located within the United States.
-- The product must be in-stock and available for purchase.
-- The product must be new and not used or damaged.
-- The product must be offered by a business or an</t>
+          <t xml:space="preserve">
+The minimum purchase amount of a transaction that must be reserved for the Micro-Purchase Threshold depends on the payment platform used. Generally, it is around $0.02 to $0.50 per transaction.</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>As an AI language model, I cannot provide accurate information based on my limited context.</t>
+          <t xml:space="preserve">
+Based on the context, the range of requirements that must be reserved for between $100 to $2,000 must include a variety of post-purchase requirements, such as:
+- Valid government-issued identification
+- Age verification
+- Anti-fraud measures
+- Account verification
+- Billing information
+- Payment methods
+- Shipping and billing addresses
+- Payment processor licensing
+- Data security and encryption
+These requirements may include additional authentication and authorization checks to ensure that the</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0.2219749242067337</v>
+        <v>0.240129292011261</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1312345266342163</v>
+        <v>0.2075690031051636</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2604,19 +2633,20 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Typically, the type of item sold to the general public is consumer goods. This includes items such as clothing, electronics, food, and household items.</t>
+          <t>I sell a variety of items to the general public, including electronics, apparel, home goods, and books.</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>As an AI language model, I cannot provide accurate information based on my limited context.</t>
+          <t xml:space="preserve">
+Answer: The type of item sold to the general public is consumer goods.</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0.5246107578277588</v>
+        <v>0.433312714099884</v>
       </c>
       <c r="I47" t="n">
-        <v>0.05190012603998184</v>
+        <v>0.5008774995803833</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2650,19 +2680,19 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Yes, a contractor can challenge the cancellation of a sealed bid as long as they submit their request within the allowed time frame and follow the proper procedure for bidding on government projects.</t>
+          <t>It depends on the terms of the contract. Generally, if the contractor has not yet started work on the project, they may have the right to challenge the cancellation if they believe they were wrongly awarded the contract. However, if work has already begun, the contractor likely does not have any legal recourse.</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>As an AI language model, I cannot provide accurate information based on my limited context.</t>
+          <t>A contractor can challenge the cancellation of a sealed bid if they believe the cancellation was unfair or unreasonable. They can appeal the decision and ask for a review of the decision. It is important for the contractor to have a contract that clearly outlines the terms and conditions of the project, including the right to appeal.</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0.1253150552511215</v>
+        <v>0.06276994943618774</v>
       </c>
       <c r="I48" t="n">
-        <v>0.02779416181147099</v>
+        <v>0.04568687081336975</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2696,20 +2726,19 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>The Simplified Acquisition Procedures can not be done on contracts above what amount?
-The Simplified Acquisition Procedures (SAP) can be used for contracts below a certain amount, usually $100,000. If the contract exceeds that amount, then the Department of Defense Office of Contract Administration (DCAA) may require additional documentation to be submitted. It's best to check with your contracting officer for the specific requirements of your contract.</t>
+          <t>As an AI language model, I do not have access to current government policies. However, based on the information you provided, it seems like the Simplified Acquisition Procedures cannot be done on contracts above $25,000. Please let me know if you need any further assistance.</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>The amount is $7.5 million.</t>
+          <t>The Simplified Acquisition Procedures cannot be used on contracts over $25 million.</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.2304794788360596</v>
+        <v>0.2738600075244904</v>
       </c>
       <c r="I49" t="n">
-        <v>0.7992593050003052</v>
+        <v>0.2354998290538788</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2743,19 +2772,19 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;The maximum amount covered by Simplified Acquisition Procedures (SAP) above which contracts can be awarded?&lt;/strong&gt; The limit for Simplified Acquisition Procedures (SAP) is typically $25 million per year, which is equivalent to 1 percent of the estimated total federal acquisition budget. However, some agencies and departments may have lower limits, while others may have higher limits depending on the type of contract and the amount of risk involved.</t>
+          <t>The simplified acquisition procedures may not be applied to contracts above $1 million.</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>35 million</t>
+          <t>$7.5 million ($15 million for acquisitions as described in 13.500).</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>0.3131048977375031</v>
+        <v>0.2482660561800003</v>
       </c>
       <c r="I50" t="n">
-        <v>0.639086902141571</v>
+        <v>0.6929136514663696</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2789,23 +2818,19 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>A Contracting Officer is responsible for administering contracts awarded to the government through competitive solicitations. The Contracting Officer is responsible for ensuring that any terms agreed upon in the contract between the government and the contractor are met. The Contracting Officer is also responsible for ensuring that any and all required documentation is on file and that all payment is received in a timely manner. 
-The Contracting Officer is responsible for developing, negotiating, and administering contractual agreements that will often support the government's national defense, technology, and space</t>
+          <t>The Contracting Officer is responsible for the contracting and procurement process. This includes administering contracts, ensuring compliance with rules and regulations, and negotiating agreements with suppliers. The Contracting Officer must also make sure that products and services are delivered on time and within budget. Additionally, they oversee the development and distribution of contracts to vendors and government agencies.</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>The responsibilities of the Contracting Officer in this context include: 
-1. Cooperating with the Department of Labor representatives in the examination of records, interviews with service employees, and all other aspects of investigations undertaken by the Department.
-2. Furnishing the Wage and Hour Administrator or a designee with information on contractors, subcontractors, their contracts, and the nature of the contract services.
-3. Promptly referring, in writing, any apparent violations or complaints to the appropriate regional office of</t>
+          <t>The main responsibility of the contracting officer is to ensure compliance with the terms of the contract, as well as to safeguard the interests of the United States. This includes performing necessary actions to ensure contract performance, ensuring compliance with the laws and regulations related to the contract, and intervening in the event of any non-performance by the contractor. The contracting officer should also be allowed wide latitude to exercise broad and reasonable discretion in the exercise of their responsibilities.</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>0.5316736102104187</v>
+        <v>0.5365712642669678</v>
       </c>
       <c r="I51" t="n">
-        <v>0.5508031845092773</v>
+        <v>0.6702883839607239</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
